--- a/aapl_data.xlsx
+++ b/aapl_data.xlsx
@@ -481,22 +481,22 @@
         <v>43832</v>
       </c>
       <c r="B2" t="n">
-        <v>74.05999755859375</v>
+        <v>158.7799987792969</v>
       </c>
       <c r="C2" t="n">
-        <v>75.15000152587891</v>
+        <v>160.7299957275391</v>
       </c>
       <c r="D2" t="n">
-        <v>73.79750061035156</v>
+        <v>158.3300018310547</v>
       </c>
       <c r="E2" t="n">
-        <v>75.08750152587891</v>
+        <v>160.6199951171875</v>
       </c>
       <c r="F2" t="n">
-        <v>72.96046447753906</v>
+        <v>154.2156524658203</v>
       </c>
       <c r="G2" t="n">
-        <v>135480400</v>
+        <v>22622100</v>
       </c>
     </row>
     <row r="3">
@@ -504,22 +504,22 @@
         <v>43833</v>
       </c>
       <c r="B3" t="n">
-        <v>74.28749847412109</v>
+        <v>158.3200073242188</v>
       </c>
       <c r="C3" t="n">
-        <v>75.14499664306641</v>
+        <v>159.9499969482422</v>
       </c>
       <c r="D3" t="n">
-        <v>74.125</v>
+        <v>158.0599975585938</v>
       </c>
       <c r="E3" t="n">
-        <v>74.35749816894531</v>
+        <v>158.6199951171875</v>
       </c>
       <c r="F3" t="n">
-        <v>72.25114440917969</v>
+        <v>152.2953948974609</v>
       </c>
       <c r="G3" t="n">
-        <v>146322800</v>
+        <v>21116200</v>
       </c>
     </row>
     <row r="4">
@@ -527,22 +527,22 @@
         <v>43836</v>
       </c>
       <c r="B4" t="n">
-        <v>73.44750213623047</v>
+        <v>157.0800018310547</v>
       </c>
       <c r="C4" t="n">
-        <v>74.98999786376953</v>
+        <v>159.1000061035156</v>
       </c>
       <c r="D4" t="n">
-        <v>73.1875</v>
+        <v>156.5099945068359</v>
       </c>
       <c r="E4" t="n">
-        <v>74.94999694824219</v>
+        <v>159.0299987792969</v>
       </c>
       <c r="F4" t="n">
-        <v>72.82686614990234</v>
+        <v>152.6890716552734</v>
       </c>
       <c r="G4" t="n">
-        <v>118387200</v>
+        <v>20813700</v>
       </c>
     </row>
     <row r="5">
@@ -550,22 +550,22 @@
         <v>43837</v>
       </c>
       <c r="B5" t="n">
-        <v>74.95999908447266</v>
+        <v>159.3200073242188</v>
       </c>
       <c r="C5" t="n">
-        <v>75.22499847412109</v>
+        <v>159.6699981689453</v>
       </c>
       <c r="D5" t="n">
-        <v>74.37000274658203</v>
+        <v>157.3200073242188</v>
       </c>
       <c r="E5" t="n">
-        <v>74.59750366210938</v>
+        <v>157.5800018310547</v>
       </c>
       <c r="F5" t="n">
-        <v>72.48434448242188</v>
+        <v>151.296875</v>
       </c>
       <c r="G5" t="n">
-        <v>108872000</v>
+        <v>21634100</v>
       </c>
     </row>
     <row r="6">
@@ -573,22 +573,22 @@
         <v>43838</v>
       </c>
       <c r="B6" t="n">
-        <v>74.29000091552734</v>
+        <v>158.9299926757812</v>
       </c>
       <c r="C6" t="n">
-        <v>76.11000061035156</v>
+        <v>160.8000030517578</v>
       </c>
       <c r="D6" t="n">
-        <v>74.29000091552734</v>
+        <v>157.9499969482422</v>
       </c>
       <c r="E6" t="n">
-        <v>75.79750061035156</v>
+        <v>160.0899963378906</v>
       </c>
       <c r="F6" t="n">
-        <v>73.65034484863281</v>
+        <v>153.7067718505859</v>
       </c>
       <c r="G6" t="n">
-        <v>132079200</v>
+        <v>27746500</v>
       </c>
     </row>
     <row r="7">
@@ -596,22 +596,22 @@
         <v>43839</v>
       </c>
       <c r="B7" t="n">
-        <v>76.80999755859375</v>
+        <v>161.8399963378906</v>
       </c>
       <c r="C7" t="n">
-        <v>77.60749816894531</v>
+        <v>162.2200012207031</v>
       </c>
       <c r="D7" t="n">
-        <v>76.55000305175781</v>
+        <v>161.0299987792969</v>
       </c>
       <c r="E7" t="n">
-        <v>77.40750122070312</v>
+        <v>162.0899963378906</v>
       </c>
       <c r="F7" t="n">
-        <v>75.21473693847656</v>
+        <v>155.6270446777344</v>
       </c>
       <c r="G7" t="n">
-        <v>170108400</v>
+        <v>21385000</v>
       </c>
     </row>
     <row r="8">
@@ -619,22 +619,22 @@
         <v>43840</v>
       </c>
       <c r="B8" t="n">
-        <v>77.65000152587891</v>
+        <v>162.8200073242188</v>
       </c>
       <c r="C8" t="n">
-        <v>78.16750335693359</v>
+        <v>163.2200012207031</v>
       </c>
       <c r="D8" t="n">
-        <v>77.0625</v>
+        <v>161.1799926757812</v>
       </c>
       <c r="E8" t="n">
-        <v>77.58249664306641</v>
+        <v>161.3399963378906</v>
       </c>
       <c r="F8" t="n">
-        <v>75.38478088378906</v>
+        <v>154.9069519042969</v>
       </c>
       <c r="G8" t="n">
-        <v>140644800</v>
+        <v>20725900</v>
       </c>
     </row>
     <row r="9">
@@ -642,22 +642,22 @@
         <v>43843</v>
       </c>
       <c r="B9" t="n">
-        <v>77.91000366210938</v>
+        <v>161.7599945068359</v>
       </c>
       <c r="C9" t="n">
-        <v>79.26750183105469</v>
+        <v>163.3099975585938</v>
       </c>
       <c r="D9" t="n">
-        <v>77.78749847412109</v>
+        <v>161.2599945068359</v>
       </c>
       <c r="E9" t="n">
-        <v>79.23999786376953</v>
+        <v>163.2799987792969</v>
       </c>
       <c r="F9" t="n">
-        <v>76.99533843994141</v>
+        <v>156.7696228027344</v>
       </c>
       <c r="G9" t="n">
-        <v>121532000</v>
+        <v>21626500</v>
       </c>
     </row>
     <row r="10">
@@ -665,22 +665,22 @@
         <v>43844</v>
       </c>
       <c r="B10" t="n">
-        <v>79.17500305175781</v>
+        <v>163.3899993896484</v>
       </c>
       <c r="C10" t="n">
-        <v>79.39250183105469</v>
+        <v>163.6000061035156</v>
       </c>
       <c r="D10" t="n">
-        <v>78.04250335693359</v>
+        <v>161.7200012207031</v>
       </c>
       <c r="E10" t="n">
-        <v>78.16999816894531</v>
+        <v>162.1300048828125</v>
       </c>
       <c r="F10" t="n">
-        <v>75.95564270019531</v>
+        <v>155.6654663085938</v>
       </c>
       <c r="G10" t="n">
-        <v>161954400</v>
+        <v>23477400</v>
       </c>
     </row>
     <row r="11">
@@ -688,22 +688,22 @@
         <v>43845</v>
       </c>
       <c r="B11" t="n">
-        <v>77.96250152587891</v>
+        <v>162.6199951171875</v>
       </c>
       <c r="C11" t="n">
-        <v>78.875</v>
+        <v>163.9400024414062</v>
       </c>
       <c r="D11" t="n">
-        <v>77.38749694824219</v>
+        <v>162.5700073242188</v>
       </c>
       <c r="E11" t="n">
-        <v>77.83499908447266</v>
+        <v>163.1799926757812</v>
       </c>
       <c r="F11" t="n">
-        <v>75.63013458251953</v>
+        <v>156.6735992431641</v>
       </c>
       <c r="G11" t="n">
-        <v>121923600</v>
+        <v>21417900</v>
       </c>
     </row>
     <row r="12">
@@ -711,22 +711,22 @@
         <v>43846</v>
       </c>
       <c r="B12" t="n">
-        <v>78.39749908447266</v>
+        <v>164.3500061035156</v>
       </c>
       <c r="C12" t="n">
-        <v>78.92500305175781</v>
+        <v>166.2400054931641</v>
       </c>
       <c r="D12" t="n">
-        <v>78.02249908447266</v>
+        <v>164.0299987792969</v>
       </c>
       <c r="E12" t="n">
-        <v>78.80999755859375</v>
+        <v>166.1699981689453</v>
       </c>
       <c r="F12" t="n">
-        <v>76.57749938964844</v>
+        <v>159.5444030761719</v>
       </c>
       <c r="G12" t="n">
-        <v>108829200</v>
+        <v>23865400</v>
       </c>
     </row>
     <row r="13">
@@ -734,22 +734,22 @@
         <v>43847</v>
       </c>
       <c r="B13" t="n">
-        <v>79.06749725341797</v>
+        <v>167.4199981689453</v>
       </c>
       <c r="C13" t="n">
-        <v>79.68499755859375</v>
+        <v>167.4700012207031</v>
       </c>
       <c r="D13" t="n">
-        <v>78.75</v>
+        <v>165.4299926757812</v>
       </c>
       <c r="E13" t="n">
-        <v>79.68250274658203</v>
+        <v>167.1000061035156</v>
       </c>
       <c r="F13" t="n">
-        <v>77.42529296875</v>
+        <v>160.4373016357422</v>
       </c>
       <c r="G13" t="n">
-        <v>137816400</v>
+        <v>34371700</v>
       </c>
     </row>
     <row r="14">
@@ -757,22 +757,22 @@
         <v>43851</v>
       </c>
       <c r="B14" t="n">
-        <v>79.29750061035156</v>
+        <v>166.6799926757812</v>
       </c>
       <c r="C14" t="n">
-        <v>79.75499725341797</v>
+        <v>168.1900024414062</v>
       </c>
       <c r="D14" t="n">
-        <v>79</v>
+        <v>166.4299926757812</v>
       </c>
       <c r="E14" t="n">
-        <v>79.14250183105469</v>
+        <v>166.5</v>
       </c>
       <c r="F14" t="n">
-        <v>76.90060424804688</v>
+        <v>159.8612213134766</v>
       </c>
       <c r="G14" t="n">
-        <v>110843200</v>
+        <v>29517200</v>
       </c>
     </row>
     <row r="15">
@@ -780,22 +780,22 @@
         <v>43852</v>
       </c>
       <c r="B15" t="n">
-        <v>79.64499664306641</v>
+        <v>167.3999938964844</v>
       </c>
       <c r="C15" t="n">
-        <v>79.99749755859375</v>
+        <v>167.4900054931641</v>
       </c>
       <c r="D15" t="n">
-        <v>79.32749938964844</v>
+        <v>165.6799926757812</v>
       </c>
       <c r="E15" t="n">
-        <v>79.42500305175781</v>
+        <v>165.6999969482422</v>
       </c>
       <c r="F15" t="n">
-        <v>77.17509460449219</v>
+        <v>159.0931091308594</v>
       </c>
       <c r="G15" t="n">
-        <v>101832400</v>
+        <v>24138800</v>
       </c>
     </row>
     <row r="16">
@@ -803,22 +803,22 @@
         <v>43853</v>
       </c>
       <c r="B16" t="n">
-        <v>79.48000335693359</v>
+        <v>166.1900024414062</v>
       </c>
       <c r="C16" t="n">
-        <v>79.88999938964844</v>
+        <v>166.8000030517578</v>
       </c>
       <c r="D16" t="n">
-        <v>78.91249847412109</v>
+        <v>165.2700042724609</v>
       </c>
       <c r="E16" t="n">
-        <v>79.80750274658203</v>
+        <v>166.7200012207031</v>
       </c>
       <c r="F16" t="n">
-        <v>77.54673767089844</v>
+        <v>160.0724487304688</v>
       </c>
       <c r="G16" t="n">
-        <v>104472000</v>
+        <v>19680800</v>
       </c>
     </row>
     <row r="17">
@@ -826,22 +826,22 @@
         <v>43854</v>
       </c>
       <c r="B17" t="n">
-        <v>80.0625</v>
+        <v>167.5099945068359</v>
       </c>
       <c r="C17" t="n">
-        <v>80.83249664306641</v>
+        <v>167.5299987792969</v>
       </c>
       <c r="D17" t="n">
-        <v>79.37999725341797</v>
+        <v>164.4499969482422</v>
       </c>
       <c r="E17" t="n">
-        <v>79.57749938964844</v>
+        <v>165.0399932861328</v>
       </c>
       <c r="F17" t="n">
-        <v>77.32327270507812</v>
+        <v>158.4594268798828</v>
       </c>
       <c r="G17" t="n">
-        <v>146537600</v>
+        <v>24918100</v>
       </c>
     </row>
     <row r="18">
@@ -849,22 +849,22 @@
         <v>43857</v>
       </c>
       <c r="B18" t="n">
-        <v>77.51499938964844</v>
+        <v>161.1499938964844</v>
       </c>
       <c r="C18" t="n">
-        <v>77.94249725341797</v>
+        <v>163.3800048828125</v>
       </c>
       <c r="D18" t="n">
-        <v>76.22000122070312</v>
+        <v>160.1999969482422</v>
       </c>
       <c r="E18" t="n">
-        <v>77.23750305175781</v>
+        <v>162.2799987792969</v>
       </c>
       <c r="F18" t="n">
-        <v>75.04955291748047</v>
+        <v>155.8094329833984</v>
       </c>
       <c r="G18" t="n">
-        <v>161940000</v>
+        <v>32078100</v>
       </c>
     </row>
     <row r="19">
@@ -872,22 +872,22 @@
         <v>43858</v>
       </c>
       <c r="B19" t="n">
-        <v>78.15000152587891</v>
+        <v>163.7799987792969</v>
       </c>
       <c r="C19" t="n">
-        <v>79.59999847412109</v>
+        <v>165.7599945068359</v>
       </c>
       <c r="D19" t="n">
-        <v>78.04750061035156</v>
+        <v>163.0700073242188</v>
       </c>
       <c r="E19" t="n">
-        <v>79.42250061035156</v>
+        <v>165.4600067138672</v>
       </c>
       <c r="F19" t="n">
-        <v>77.17264556884766</v>
+        <v>158.8626708984375</v>
       </c>
       <c r="G19" t="n">
-        <v>162234000</v>
+        <v>24899900</v>
       </c>
     </row>
     <row r="20">
@@ -895,22 +895,22 @@
         <v>43859</v>
       </c>
       <c r="B20" t="n">
-        <v>81.11250305175781</v>
+        <v>167.8399963378906</v>
       </c>
       <c r="C20" t="n">
-        <v>81.96250152587891</v>
+        <v>168.75</v>
       </c>
       <c r="D20" t="n">
-        <v>80.34500122070312</v>
+        <v>165.6900024414062</v>
       </c>
       <c r="E20" t="n">
-        <v>81.08499908447266</v>
+        <v>168.0399932861328</v>
       </c>
       <c r="F20" t="n">
-        <v>78.78807830810547</v>
+        <v>161.3397827148438</v>
       </c>
       <c r="G20" t="n">
-        <v>216229200</v>
+        <v>34754500</v>
       </c>
     </row>
     <row r="21">
@@ -918,22 +918,22 @@
         <v>43860</v>
       </c>
       <c r="B21" t="n">
-        <v>80.13500213623047</v>
+        <v>174.0500030517578</v>
       </c>
       <c r="C21" t="n">
-        <v>81.02249908447266</v>
+        <v>174.0500030517578</v>
       </c>
       <c r="D21" t="n">
-        <v>79.6875</v>
+        <v>170.7899932861328</v>
       </c>
       <c r="E21" t="n">
-        <v>80.96749877929688</v>
+        <v>172.7799987792969</v>
       </c>
       <c r="F21" t="n">
-        <v>78.67389678955078</v>
+        <v>165.8908081054688</v>
       </c>
       <c r="G21" t="n">
-        <v>126743200</v>
+        <v>51597500</v>
       </c>
     </row>
     <row r="22">
@@ -941,22 +941,22 @@
         <v>43861</v>
       </c>
       <c r="B22" t="n">
-        <v>80.23249816894531</v>
+        <v>172.2100067138672</v>
       </c>
       <c r="C22" t="n">
-        <v>80.66999816894531</v>
+        <v>172.3999938964844</v>
       </c>
       <c r="D22" t="n">
-        <v>77.07250213623047</v>
+        <v>169.5800018310547</v>
       </c>
       <c r="E22" t="n">
-        <v>77.37750244140625</v>
+        <v>170.2299957275391</v>
       </c>
       <c r="F22" t="n">
-        <v>75.18558502197266</v>
+        <v>163.4424743652344</v>
       </c>
       <c r="G22" t="n">
-        <v>199588400</v>
+        <v>36142700</v>
       </c>
     </row>
     <row r="23">
@@ -964,22 +964,22 @@
         <v>43864</v>
       </c>
       <c r="B23" t="n">
-        <v>76.07499694824219</v>
+        <v>170.4299926757812</v>
       </c>
       <c r="C23" t="n">
-        <v>78.37249755859375</v>
+        <v>174.5</v>
       </c>
       <c r="D23" t="n">
-        <v>75.55500030517578</v>
+        <v>170.3999938964844</v>
       </c>
       <c r="E23" t="n">
-        <v>77.16500091552734</v>
+        <v>174.3800048828125</v>
       </c>
       <c r="F23" t="n">
-        <v>74.9791259765625</v>
+        <v>167.427001953125</v>
       </c>
       <c r="G23" t="n">
-        <v>173788400</v>
+        <v>30107000</v>
       </c>
     </row>
     <row r="24">
@@ -987,22 +987,22 @@
         <v>43865</v>
       </c>
       <c r="B24" t="n">
-        <v>78.82749938964844</v>
+        <v>177.1399993896484</v>
       </c>
       <c r="C24" t="n">
-        <v>79.91000366210938</v>
+        <v>180.6399993896484</v>
       </c>
       <c r="D24" t="n">
-        <v>78.40750122070312</v>
+        <v>176.3099975585938</v>
       </c>
       <c r="E24" t="n">
-        <v>79.71250152587891</v>
+        <v>180.1199951171875</v>
       </c>
       <c r="F24" t="n">
-        <v>77.45445251464844</v>
+        <v>172.9381561279297</v>
       </c>
       <c r="G24" t="n">
-        <v>136616400</v>
+        <v>36433300</v>
       </c>
     </row>
     <row r="25">
@@ -1010,22 +1010,22 @@
         <v>43866</v>
       </c>
       <c r="B25" t="n">
-        <v>80.87999725341797</v>
+        <v>184.0299987792969</v>
       </c>
       <c r="C25" t="n">
-        <v>81.19000244140625</v>
+        <v>184.1999969482422</v>
       </c>
       <c r="D25" t="n">
-        <v>79.73750305175781</v>
+        <v>178.4100036621094</v>
       </c>
       <c r="E25" t="n">
-        <v>80.36250305175781</v>
+        <v>179.8999938964844</v>
       </c>
       <c r="F25" t="n">
-        <v>78.08604431152344</v>
+        <v>172.7268981933594</v>
       </c>
       <c r="G25" t="n">
-        <v>118826800</v>
+        <v>39186300</v>
       </c>
     </row>
     <row r="26">
@@ -1033,22 +1033,22 @@
         <v>43867</v>
       </c>
       <c r="B26" t="n">
-        <v>80.64250183105469</v>
+        <v>180.9700012207031</v>
       </c>
       <c r="C26" t="n">
-        <v>81.30500030517578</v>
+        <v>183.8200073242188</v>
       </c>
       <c r="D26" t="n">
-        <v>80.06500244140625</v>
+        <v>180.0599975585938</v>
       </c>
       <c r="E26" t="n">
-        <v>81.30249786376953</v>
+        <v>183.6300048828125</v>
       </c>
       <c r="F26" t="n">
-        <v>78.99940490722656</v>
+        <v>176.3081970214844</v>
       </c>
       <c r="G26" t="n">
-        <v>105425600</v>
+        <v>27751400</v>
       </c>
     </row>
     <row r="27">
@@ -1056,22 +1056,22 @@
         <v>43868</v>
       </c>
       <c r="B27" t="n">
-        <v>80.59249877929688</v>
+        <v>182.8500061035156</v>
       </c>
       <c r="C27" t="n">
-        <v>80.84999847412109</v>
+        <v>185.6300048828125</v>
       </c>
       <c r="D27" t="n">
-        <v>79.5</v>
+        <v>182.4799957275391</v>
       </c>
       <c r="E27" t="n">
-        <v>80.00749969482422</v>
+        <v>183.8899993896484</v>
       </c>
       <c r="F27" t="n">
-        <v>77.92559051513672</v>
+        <v>176.557861328125</v>
       </c>
       <c r="G27" t="n">
-        <v>117684000</v>
+        <v>33529100</v>
       </c>
     </row>
     <row r="28">
@@ -1079,22 +1079,22 @@
         <v>43871</v>
       </c>
       <c r="B28" t="n">
-        <v>78.54499816894531</v>
+        <v>183.5800018310547</v>
       </c>
       <c r="C28" t="n">
-        <v>80.38749694824219</v>
+        <v>188.8399963378906</v>
       </c>
       <c r="D28" t="n">
-        <v>78.46250152587891</v>
+        <v>183.25</v>
       </c>
       <c r="E28" t="n">
-        <v>80.38749694824219</v>
+        <v>188.6999969482422</v>
       </c>
       <c r="F28" t="n">
-        <v>78.29570007324219</v>
+        <v>181.1760559082031</v>
       </c>
       <c r="G28" t="n">
-        <v>109348800</v>
+        <v>35844300</v>
       </c>
     </row>
     <row r="29">
@@ -1102,22 +1102,22 @@
         <v>43872</v>
       </c>
       <c r="B29" t="n">
-        <v>80.90000152587891</v>
+        <v>190.6499938964844</v>
       </c>
       <c r="C29" t="n">
-        <v>80.97499847412109</v>
+        <v>190.6999969482422</v>
       </c>
       <c r="D29" t="n">
-        <v>79.67749786376953</v>
+        <v>183.5</v>
       </c>
       <c r="E29" t="n">
-        <v>79.90249633789062</v>
+        <v>184.4400024414062</v>
       </c>
       <c r="F29" t="n">
-        <v>77.82333374023438</v>
+        <v>177.0859222412109</v>
       </c>
       <c r="G29" t="n">
-        <v>94323200</v>
+        <v>53159900</v>
       </c>
     </row>
     <row r="30">
@@ -1125,22 +1125,22 @@
         <v>43873</v>
       </c>
       <c r="B30" t="n">
-        <v>80.36750030517578</v>
+        <v>185.5800018310547</v>
       </c>
       <c r="C30" t="n">
-        <v>81.80500030517578</v>
+        <v>185.8500061035156</v>
       </c>
       <c r="D30" t="n">
-        <v>80.36750030517578</v>
+        <v>181.8500061035156</v>
       </c>
       <c r="E30" t="n">
-        <v>81.80000305175781</v>
+        <v>184.7100067138672</v>
       </c>
       <c r="F30" t="n">
-        <v>79.67145538330078</v>
+        <v>177.3451232910156</v>
       </c>
       <c r="G30" t="n">
-        <v>113730400</v>
+        <v>47062900</v>
       </c>
     </row>
     <row r="31">
@@ -1148,22 +1148,22 @@
         <v>43874</v>
       </c>
       <c r="B31" t="n">
-        <v>81.04750061035156</v>
+        <v>183.0800018310547</v>
       </c>
       <c r="C31" t="n">
-        <v>81.55500030517578</v>
+        <v>186.2299957275391</v>
       </c>
       <c r="D31" t="n">
-        <v>80.83750152587891</v>
+        <v>182.8699951171875</v>
       </c>
       <c r="E31" t="n">
-        <v>81.21749877929688</v>
+        <v>183.7100067138672</v>
       </c>
       <c r="F31" t="n">
-        <v>79.10411834716797</v>
+        <v>176.385009765625</v>
       </c>
       <c r="G31" t="n">
-        <v>94747600</v>
+        <v>35295800</v>
       </c>
     </row>
     <row r="32">
@@ -1171,22 +1171,22 @@
         <v>43875</v>
       </c>
       <c r="B32" t="n">
-        <v>81.18499755859375</v>
+        <v>183.25</v>
       </c>
       <c r="C32" t="n">
-        <v>81.49500274658203</v>
+        <v>185.4100036621094</v>
       </c>
       <c r="D32" t="n">
-        <v>80.71250152587891</v>
+        <v>182.6499938964844</v>
       </c>
       <c r="E32" t="n">
-        <v>81.23750305175781</v>
+        <v>185.3500061035156</v>
       </c>
       <c r="F32" t="n">
-        <v>79.12357330322266</v>
+        <v>177.9596099853516</v>
       </c>
       <c r="G32" t="n">
-        <v>80113600</v>
+        <v>23149500</v>
       </c>
     </row>
     <row r="33">
@@ -1194,22 +1194,22 @@
         <v>43879</v>
       </c>
       <c r="B33" t="n">
-        <v>78.83999633789062</v>
+        <v>185.6100006103516</v>
       </c>
       <c r="C33" t="n">
-        <v>79.9375</v>
+        <v>187.6999969482422</v>
       </c>
       <c r="D33" t="n">
-        <v>78.65249633789062</v>
+        <v>185.5</v>
       </c>
       <c r="E33" t="n">
-        <v>79.75</v>
+        <v>187.2299957275391</v>
       </c>
       <c r="F33" t="n">
-        <v>77.67479705810547</v>
+        <v>179.7646179199219</v>
       </c>
       <c r="G33" t="n">
-        <v>152531200</v>
+        <v>27792200</v>
       </c>
     </row>
     <row r="34">
@@ -1217,22 +1217,22 @@
         <v>43880</v>
       </c>
       <c r="B34" t="n">
-        <v>80</v>
+        <v>188.0599975585938</v>
       </c>
       <c r="C34" t="n">
-        <v>81.14250183105469</v>
+        <v>188.1799926757812</v>
       </c>
       <c r="D34" t="n">
-        <v>80</v>
+        <v>186.4700012207031</v>
       </c>
       <c r="E34" t="n">
-        <v>80.90499877929688</v>
+        <v>187.2799987792969</v>
       </c>
       <c r="F34" t="n">
-        <v>78.79974365234375</v>
+        <v>180.3038024902344</v>
       </c>
       <c r="G34" t="n">
-        <v>93984000</v>
+        <v>29997500</v>
       </c>
     </row>
     <row r="35">
@@ -1240,22 +1240,22 @@
         <v>43881</v>
       </c>
       <c r="B35" t="n">
-        <v>80.65750122070312</v>
+        <v>186.9499969482422</v>
       </c>
       <c r="C35" t="n">
-        <v>81.16249847412109</v>
+        <v>187.25</v>
       </c>
       <c r="D35" t="n">
-        <v>79.55249786376953</v>
+        <v>181.1000061035156</v>
       </c>
       <c r="E35" t="n">
-        <v>80.07499694824219</v>
+        <v>184.4199981689453</v>
       </c>
       <c r="F35" t="n">
-        <v>77.9913330078125</v>
+        <v>177.5503082275391</v>
       </c>
       <c r="G35" t="n">
-        <v>100566000</v>
+        <v>36862400</v>
       </c>
     </row>
     <row r="36">
@@ -1263,22 +1263,22 @@
         <v>43882</v>
       </c>
       <c r="B36" t="n">
-        <v>79.65499877929688</v>
+        <v>183.1699981689453</v>
       </c>
       <c r="C36" t="n">
-        <v>80.11250305175781</v>
+        <v>183.5</v>
       </c>
       <c r="D36" t="n">
-        <v>77.625</v>
+        <v>177.25</v>
       </c>
       <c r="E36" t="n">
-        <v>78.26249694824219</v>
+        <v>178.5899963378906</v>
       </c>
       <c r="F36" t="n">
-        <v>76.22599792480469</v>
+        <v>171.9374694824219</v>
       </c>
       <c r="G36" t="n">
-        <v>129554000</v>
+        <v>48572600</v>
       </c>
     </row>
     <row r="37">
@@ -1286,22 +1286,22 @@
         <v>43885</v>
       </c>
       <c r="B37" t="n">
-        <v>74.31500244140625</v>
+        <v>167.7700042724609</v>
       </c>
       <c r="C37" t="n">
-        <v>76.04499816894531</v>
+        <v>174.5500030517578</v>
       </c>
       <c r="D37" t="n">
-        <v>72.30750274658203</v>
+        <v>163.2299957275391</v>
       </c>
       <c r="E37" t="n">
-        <v>74.54499816894531</v>
+        <v>170.8899993896484</v>
       </c>
       <c r="F37" t="n">
-        <v>72.60523986816406</v>
+        <v>164.5243377685547</v>
       </c>
       <c r="G37" t="n">
-        <v>222195200</v>
+        <v>68311100</v>
       </c>
     </row>
     <row r="38">
@@ -1309,22 +1309,22 @@
         <v>43886</v>
       </c>
       <c r="B38" t="n">
-        <v>75.23750305175781</v>
+        <v>174.1999969482422</v>
       </c>
       <c r="C38" t="n">
-        <v>75.63249969482422</v>
+        <v>174.8399963378906</v>
       </c>
       <c r="D38" t="n">
-        <v>71.53250122070312</v>
+        <v>167.6499938964844</v>
       </c>
       <c r="E38" t="n">
-        <v>72.01999664306641</v>
+        <v>168.0700073242188</v>
       </c>
       <c r="F38" t="n">
-        <v>70.14592742919922</v>
+        <v>161.8093719482422</v>
       </c>
       <c r="G38" t="n">
-        <v>230673600</v>
+        <v>68073300</v>
       </c>
     </row>
     <row r="39">
@@ -1332,22 +1332,22 @@
         <v>43887</v>
       </c>
       <c r="B39" t="n">
-        <v>71.63249969482422</v>
+        <v>169.7100067138672</v>
       </c>
       <c r="C39" t="n">
-        <v>74.47000122070312</v>
+        <v>173.2599945068359</v>
       </c>
       <c r="D39" t="n">
-        <v>71.625</v>
+        <v>168.2100067138672</v>
       </c>
       <c r="E39" t="n">
-        <v>73.16249847412109</v>
+        <v>170.1699981689453</v>
       </c>
       <c r="F39" t="n">
-        <v>71.25872039794922</v>
+        <v>163.8311157226562</v>
       </c>
       <c r="G39" t="n">
-        <v>198054800</v>
+        <v>56206100</v>
       </c>
     </row>
     <row r="40">
@@ -1355,22 +1355,22 @@
         <v>43888</v>
       </c>
       <c r="B40" t="n">
-        <v>70.27500152587891</v>
+        <v>163.3200073242188</v>
       </c>
       <c r="C40" t="n">
-        <v>71.5</v>
+        <v>167.0299987792969</v>
       </c>
       <c r="D40" t="n">
-        <v>68.23999786376953</v>
+        <v>157.9799957275391</v>
       </c>
       <c r="E40" t="n">
-        <v>68.37999725341797</v>
+        <v>158.1799926757812</v>
       </c>
       <c r="F40" t="n">
-        <v>66.60066223144531</v>
+        <v>152.2877655029297</v>
       </c>
       <c r="G40" t="n">
-        <v>320605600</v>
+        <v>93174900</v>
       </c>
     </row>
     <row r="41">
@@ -1378,22 +1378,22 @@
         <v>43889</v>
       </c>
       <c r="B41" t="n">
-        <v>64.31500244140625</v>
+        <v>152.4100036621094</v>
       </c>
       <c r="C41" t="n">
-        <v>69.60250091552734</v>
+        <v>163.7100067138672</v>
       </c>
       <c r="D41" t="n">
-        <v>64.09249877929688</v>
+        <v>152</v>
       </c>
       <c r="E41" t="n">
-        <v>68.33999633789062</v>
+        <v>162.0099945068359</v>
       </c>
       <c r="F41" t="n">
-        <v>66.56170654296875</v>
+        <v>155.97509765625</v>
       </c>
       <c r="G41" t="n">
-        <v>426510000</v>
+        <v>97012700</v>
       </c>
     </row>
     <row r="42">
@@ -1401,22 +1401,22 @@
         <v>43892</v>
       </c>
       <c r="B42" t="n">
-        <v>70.56999969482422</v>
+        <v>165.3099975585938</v>
       </c>
       <c r="C42" t="n">
-        <v>75.36000061035156</v>
+        <v>172.9199981689453</v>
       </c>
       <c r="D42" t="n">
-        <v>69.43000030517578</v>
+        <v>162.3099975585938</v>
       </c>
       <c r="E42" t="n">
-        <v>74.70249938964844</v>
+        <v>172.7899932861328</v>
       </c>
       <c r="F42" t="n">
-        <v>72.75862884521484</v>
+        <v>166.3535614013672</v>
       </c>
       <c r="G42" t="n">
-        <v>341397200</v>
+        <v>71030800</v>
       </c>
     </row>
     <row r="43">
@@ -1424,22 +1424,22 @@
         <v>43893</v>
       </c>
       <c r="B43" t="n">
-        <v>75.91750335693359</v>
+        <v>173.8000030517578</v>
       </c>
       <c r="C43" t="n">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="D43" t="n">
-        <v>71.44999694824219</v>
+        <v>162.2599945068359</v>
       </c>
       <c r="E43" t="n">
-        <v>72.33000183105469</v>
+        <v>164.5099945068359</v>
       </c>
       <c r="F43" t="n">
-        <v>70.44786834716797</v>
+        <v>158.3819427490234</v>
       </c>
       <c r="G43" t="n">
-        <v>319475600</v>
+        <v>71677000</v>
       </c>
     </row>
     <row r="44">
@@ -1447,22 +1447,22 @@
         <v>43894</v>
       </c>
       <c r="B44" t="n">
-        <v>74.11000061035156</v>
+        <v>168.4900054931641</v>
       </c>
       <c r="C44" t="n">
-        <v>75.84999847412109</v>
+        <v>170.6999969482422</v>
       </c>
       <c r="D44" t="n">
-        <v>73.28250122070312</v>
+        <v>165.6199951171875</v>
       </c>
       <c r="E44" t="n">
-        <v>75.68499755859375</v>
+        <v>170.5500030517578</v>
       </c>
       <c r="F44" t="n">
-        <v>73.71558380126953</v>
+        <v>164.1970367431641</v>
       </c>
       <c r="G44" t="n">
-        <v>219178400</v>
+        <v>49814400</v>
       </c>
     </row>
     <row r="45">
@@ -1470,22 +1470,22 @@
         <v>43895</v>
       </c>
       <c r="B45" t="n">
-        <v>73.87999725341797</v>
+        <v>166.0500030517578</v>
       </c>
       <c r="C45" t="n">
-        <v>74.88749694824219</v>
+        <v>170.8699951171875</v>
       </c>
       <c r="D45" t="n">
-        <v>72.85250091552734</v>
+        <v>165.6900024414062</v>
       </c>
       <c r="E45" t="n">
-        <v>73.23000335693359</v>
+        <v>166.2700042724609</v>
       </c>
       <c r="F45" t="n">
-        <v>71.324462890625</v>
+        <v>160.076416015625</v>
       </c>
       <c r="G45" t="n">
-        <v>187572800</v>
+        <v>47817300</v>
       </c>
     </row>
     <row r="46">
@@ -1493,22 +1493,22 @@
         <v>43896</v>
       </c>
       <c r="B46" t="n">
-        <v>70.5</v>
+        <v>162.6100006103516</v>
       </c>
       <c r="C46" t="n">
-        <v>72.70500183105469</v>
+        <v>163.1100006103516</v>
       </c>
       <c r="D46" t="n">
-        <v>70.30750274658203</v>
+        <v>156</v>
       </c>
       <c r="E46" t="n">
-        <v>72.25749969482422</v>
+        <v>161.5700073242188</v>
       </c>
       <c r="F46" t="n">
-        <v>70.37724304199219</v>
+        <v>155.551513671875</v>
       </c>
       <c r="G46" t="n">
-        <v>226176800</v>
+        <v>72821100</v>
       </c>
     </row>
     <row r="47">
@@ -1516,22 +1516,22 @@
         <v>43899</v>
       </c>
       <c r="B47" t="n">
-        <v>65.9375</v>
+        <v>151</v>
       </c>
       <c r="C47" t="n">
-        <v>69.52249908447266</v>
+        <v>157.75</v>
       </c>
       <c r="D47" t="n">
-        <v>65.75</v>
+        <v>150</v>
       </c>
       <c r="E47" t="n">
-        <v>66.54250335693359</v>
+        <v>150.6199951171875</v>
       </c>
       <c r="F47" t="n">
-        <v>64.81098175048828</v>
+        <v>145.0094146728516</v>
       </c>
       <c r="G47" t="n">
-        <v>286744800</v>
+        <v>70419300</v>
       </c>
     </row>
     <row r="48">
@@ -1539,22 +1539,22 @@
         <v>43900</v>
       </c>
       <c r="B48" t="n">
-        <v>69.28500366210938</v>
+        <v>158.1600036621094</v>
       </c>
       <c r="C48" t="n">
-        <v>71.61000061035156</v>
+        <v>161.0299987792969</v>
       </c>
       <c r="D48" t="n">
-        <v>67.34249877929688</v>
+        <v>152.5800018310547</v>
       </c>
       <c r="E48" t="n">
-        <v>71.33499908447266</v>
+        <v>160.9199981689453</v>
       </c>
       <c r="F48" t="n">
-        <v>69.47874450683594</v>
+        <v>154.9257049560547</v>
       </c>
       <c r="G48" t="n">
-        <v>285290000</v>
+        <v>65354400</v>
       </c>
     </row>
     <row r="49">
@@ -1562,22 +1562,22 @@
         <v>43901</v>
       </c>
       <c r="B49" t="n">
-        <v>69.34750366210938</v>
+        <v>157.1300048828125</v>
       </c>
       <c r="C49" t="n">
-        <v>70.30500030517578</v>
+        <v>157.6999969482422</v>
       </c>
       <c r="D49" t="n">
-        <v>67.96499633789062</v>
+        <v>151.1499938964844</v>
       </c>
       <c r="E49" t="n">
-        <v>68.85749816894531</v>
+        <v>153.6300048828125</v>
       </c>
       <c r="F49" t="n">
-        <v>67.06573486328125</v>
+        <v>147.9072875976562</v>
       </c>
       <c r="G49" t="n">
-        <v>255598800</v>
+        <v>56371600</v>
       </c>
     </row>
     <row r="50">
@@ -1585,22 +1585,22 @@
         <v>43902</v>
       </c>
       <c r="B50" t="n">
-        <v>63.98500061035156</v>
+        <v>145.3000030517578</v>
       </c>
       <c r="C50" t="n">
-        <v>67.5</v>
+        <v>153.4700012207031</v>
       </c>
       <c r="D50" t="n">
-        <v>62</v>
+        <v>138.5800018310547</v>
       </c>
       <c r="E50" t="n">
-        <v>62.05749893188477</v>
+        <v>139.0599975585938</v>
       </c>
       <c r="F50" t="n">
-        <v>60.44268035888672</v>
+        <v>133.8799743652344</v>
       </c>
       <c r="G50" t="n">
-        <v>418474000</v>
+        <v>93226400</v>
       </c>
     </row>
     <row r="51">
@@ -1608,22 +1608,22 @@
         <v>43903</v>
       </c>
       <c r="B51" t="n">
-        <v>66.22250366210938</v>
+        <v>147.5</v>
       </c>
       <c r="C51" t="n">
-        <v>69.98000335693359</v>
+        <v>161.9100036621094</v>
       </c>
       <c r="D51" t="n">
-        <v>63.23749923706055</v>
+        <v>140.7299957275391</v>
       </c>
       <c r="E51" t="n">
-        <v>69.49250030517578</v>
+        <v>158.8300018310547</v>
       </c>
       <c r="F51" t="n">
-        <v>67.68418884277344</v>
+        <v>152.9135894775391</v>
       </c>
       <c r="G51" t="n">
-        <v>370732000</v>
+        <v>92727400</v>
       </c>
     </row>
     <row r="52">
@@ -1631,22 +1631,22 @@
         <v>43906</v>
       </c>
       <c r="B52" t="n">
-        <v>60.48749923706055</v>
+        <v>140</v>
       </c>
       <c r="C52" t="n">
-        <v>64.76999664306641</v>
+        <v>149.3500061035156</v>
       </c>
       <c r="D52" t="n">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="E52" t="n">
-        <v>60.5525016784668</v>
+        <v>135.4199981689453</v>
       </c>
       <c r="F52" t="n">
-        <v>58.97684860229492</v>
+        <v>130.3755950927734</v>
       </c>
       <c r="G52" t="n">
-        <v>322423600</v>
+        <v>87905900</v>
       </c>
     </row>
     <row r="53">
@@ -1654,22 +1654,22 @@
         <v>43907</v>
       </c>
       <c r="B53" t="n">
-        <v>61.87749862670898</v>
+        <v>140</v>
       </c>
       <c r="C53" t="n">
-        <v>64.40249633789062</v>
+        <v>147.5</v>
       </c>
       <c r="D53" t="n">
-        <v>59.59999847412109</v>
+        <v>135</v>
       </c>
       <c r="E53" t="n">
-        <v>63.21500015258789</v>
+        <v>146.5700073242188</v>
       </c>
       <c r="F53" t="n">
-        <v>61.57006454467773</v>
+        <v>141.1102600097656</v>
       </c>
       <c r="G53" t="n">
-        <v>324056000</v>
+        <v>81059800</v>
       </c>
     </row>
     <row r="54">
@@ -1677,22 +1677,22 @@
         <v>43908</v>
       </c>
       <c r="B54" t="n">
-        <v>59.94250106811523</v>
+        <v>138</v>
       </c>
       <c r="C54" t="n">
-        <v>62.5</v>
+        <v>146</v>
       </c>
       <c r="D54" t="n">
-        <v>59.27999877929688</v>
+        <v>135.0200042724609</v>
       </c>
       <c r="E54" t="n">
-        <v>61.66749954223633</v>
+        <v>140.3999938964844</v>
       </c>
       <c r="F54" t="n">
-        <v>60.06282424926758</v>
+        <v>135.1701049804688</v>
       </c>
       <c r="G54" t="n">
-        <v>300233600</v>
+        <v>81593200</v>
       </c>
     </row>
     <row r="55">
@@ -1700,22 +1700,22 @@
         <v>43909</v>
       </c>
       <c r="B55" t="n">
-        <v>61.84749984741211</v>
+        <v>142.7700042724609</v>
       </c>
       <c r="C55" t="n">
-        <v>63.20999908447266</v>
+        <v>150.1499938964844</v>
       </c>
       <c r="D55" t="n">
-        <v>60.65250015258789</v>
+        <v>139</v>
       </c>
       <c r="E55" t="n">
-        <v>61.19499969482422</v>
+        <v>142.7100067138672</v>
       </c>
       <c r="F55" t="n">
-        <v>59.60262298583984</v>
+        <v>137.3940582275391</v>
       </c>
       <c r="G55" t="n">
-        <v>271857200</v>
+        <v>85922700</v>
       </c>
     </row>
     <row r="56">
@@ -1723,22 +1723,22 @@
         <v>43910</v>
       </c>
       <c r="B56" t="n">
-        <v>61.79499816894531</v>
+        <v>146</v>
       </c>
       <c r="C56" t="n">
-        <v>62.95750045776367</v>
+        <v>147.1000061035156</v>
       </c>
       <c r="D56" t="n">
-        <v>57</v>
+        <v>135.8600006103516</v>
       </c>
       <c r="E56" t="n">
-        <v>57.31000137329102</v>
+        <v>137.3500061035156</v>
       </c>
       <c r="F56" t="n">
-        <v>55.8187141418457</v>
+        <v>132.2337188720703</v>
       </c>
       <c r="G56" t="n">
-        <v>401693200</v>
+        <v>84866200</v>
       </c>
     </row>
     <row r="57">
@@ -1746,22 +1746,22 @@
         <v>43913</v>
       </c>
       <c r="B57" t="n">
-        <v>57.02000045776367</v>
+        <v>137.0099945068359</v>
       </c>
       <c r="C57" t="n">
-        <v>57.125</v>
+        <v>140.5700073242188</v>
       </c>
       <c r="D57" t="n">
-        <v>53.15250015258789</v>
+        <v>132.5200042724609</v>
       </c>
       <c r="E57" t="n">
-        <v>56.09249877929688</v>
+        <v>135.9799957275391</v>
       </c>
       <c r="F57" t="n">
-        <v>54.63288879394531</v>
+        <v>130.9147186279297</v>
       </c>
       <c r="G57" t="n">
-        <v>336752800</v>
+        <v>78975200</v>
       </c>
     </row>
     <row r="58">
@@ -1769,22 +1769,22 @@
         <v>43914</v>
       </c>
       <c r="B58" t="n">
-        <v>59.09000015258789</v>
+        <v>143.75</v>
       </c>
       <c r="C58" t="n">
-        <v>61.92250061035156</v>
+        <v>149.6000061035156</v>
       </c>
       <c r="D58" t="n">
-        <v>58.57500076293945</v>
+        <v>141.2700042724609</v>
       </c>
       <c r="E58" t="n">
-        <v>61.72000122070312</v>
+        <v>148.3399963378906</v>
       </c>
       <c r="F58" t="n">
-        <v>60.11396408081055</v>
+        <v>142.8143157958984</v>
       </c>
       <c r="G58" t="n">
-        <v>287531200</v>
+        <v>82516700</v>
       </c>
     </row>
     <row r="59">
@@ -1792,22 +1792,22 @@
         <v>43915</v>
       </c>
       <c r="B59" t="n">
-        <v>62.6875</v>
+        <v>148.9100036621094</v>
       </c>
       <c r="C59" t="n">
-        <v>64.5625</v>
+        <v>154.3300018310547</v>
       </c>
       <c r="D59" t="n">
-        <v>61.07500076293945</v>
+        <v>144.4400024414062</v>
       </c>
       <c r="E59" t="n">
-        <v>61.38000106811523</v>
+        <v>146.9199981689453</v>
       </c>
       <c r="F59" t="n">
-        <v>59.78280639648438</v>
+        <v>141.4472198486328</v>
       </c>
       <c r="G59" t="n">
-        <v>303602000</v>
+        <v>75638200</v>
       </c>
     </row>
     <row r="60">
@@ -1815,22 +1815,22 @@
         <v>43916</v>
       </c>
       <c r="B60" t="n">
-        <v>61.63000106811523</v>
+        <v>148.3999938964844</v>
       </c>
       <c r="C60" t="n">
-        <v>64.66999816894531</v>
+        <v>156.6600036621094</v>
       </c>
       <c r="D60" t="n">
-        <v>61.59000015258789</v>
+        <v>148.3699951171875</v>
       </c>
       <c r="E60" t="n">
-        <v>64.61000061035156</v>
+        <v>156.1100006103516</v>
       </c>
       <c r="F60" t="n">
-        <v>62.92875671386719</v>
+        <v>150.2949066162109</v>
       </c>
       <c r="G60" t="n">
-        <v>252087200</v>
+        <v>64568100</v>
       </c>
     </row>
     <row r="61">
@@ -1838,22 +1838,22 @@
         <v>43917</v>
       </c>
       <c r="B61" t="n">
-        <v>63.1875</v>
+        <v>151.75</v>
       </c>
       <c r="C61" t="n">
-        <v>63.96749877929688</v>
+        <v>154.8899993896484</v>
       </c>
       <c r="D61" t="n">
-        <v>61.76250076293945</v>
+        <v>149.1999969482422</v>
       </c>
       <c r="E61" t="n">
-        <v>61.93500137329102</v>
+        <v>149.6999969482422</v>
       </c>
       <c r="F61" t="n">
-        <v>60.32336044311523</v>
+        <v>144.1236419677734</v>
       </c>
       <c r="G61" t="n">
-        <v>204216800</v>
+        <v>57042300</v>
       </c>
     </row>
     <row r="62">
@@ -1861,22 +1861,22 @@
         <v>43920</v>
       </c>
       <c r="B62" t="n">
-        <v>62.68500137329102</v>
+        <v>152.4400024414062</v>
       </c>
       <c r="C62" t="n">
-        <v>63.88000106811523</v>
+        <v>160.6000061035156</v>
       </c>
       <c r="D62" t="n">
-        <v>62.34999847412109</v>
+        <v>150.0099945068359</v>
       </c>
       <c r="E62" t="n">
-        <v>63.70249938964844</v>
+        <v>160.2299957275391</v>
       </c>
       <c r="F62" t="n">
-        <v>62.04487609863281</v>
+        <v>154.2614135742188</v>
       </c>
       <c r="G62" t="n">
-        <v>167976400</v>
+        <v>63420300</v>
       </c>
     </row>
     <row r="63">
@@ -1884,22 +1884,22 @@
         <v>43921</v>
       </c>
       <c r="B63" t="n">
-        <v>63.90000152587891</v>
+        <v>159.3999938964844</v>
       </c>
       <c r="C63" t="n">
-        <v>65.62249755859375</v>
+        <v>164.7799987792969</v>
       </c>
       <c r="D63" t="n">
-        <v>63</v>
+        <v>156.5599975585938</v>
       </c>
       <c r="E63" t="n">
-        <v>63.5724983215332</v>
+        <v>157.7100067138672</v>
       </c>
       <c r="F63" t="n">
-        <v>61.91825866699219</v>
+        <v>151.8352966308594</v>
       </c>
       <c r="G63" t="n">
-        <v>197002000</v>
+        <v>77927200</v>
       </c>
     </row>
     <row r="64">
@@ -1907,22 +1907,22 @@
         <v>43922</v>
       </c>
       <c r="B64" t="n">
-        <v>61.625</v>
+        <v>153</v>
       </c>
       <c r="C64" t="n">
-        <v>62.18000030517578</v>
+        <v>157.75</v>
       </c>
       <c r="D64" t="n">
-        <v>59.78250122070312</v>
+        <v>150.8200073242188</v>
       </c>
       <c r="E64" t="n">
-        <v>60.22750091552734</v>
+        <v>152.1100006103516</v>
       </c>
       <c r="F64" t="n">
-        <v>58.66029739379883</v>
+        <v>146.4439086914062</v>
       </c>
       <c r="G64" t="n">
-        <v>176218400</v>
+        <v>57969900</v>
       </c>
     </row>
     <row r="65">
@@ -1930,22 +1930,22 @@
         <v>43923</v>
       </c>
       <c r="B65" t="n">
-        <v>60.08499908447266</v>
+        <v>151.8600006103516</v>
       </c>
       <c r="C65" t="n">
-        <v>61.28749847412109</v>
+        <v>155.4799957275391</v>
       </c>
       <c r="D65" t="n">
-        <v>59.22499847412109</v>
+        <v>150.3600006103516</v>
       </c>
       <c r="E65" t="n">
-        <v>61.23249816894531</v>
+        <v>155.2599945068359</v>
       </c>
       <c r="F65" t="n">
-        <v>59.63914489746094</v>
+        <v>149.4765777587891</v>
       </c>
       <c r="G65" t="n">
-        <v>165934000</v>
+        <v>49630700</v>
       </c>
     </row>
     <row r="66">
@@ -1953,22 +1953,22 @@
         <v>43924</v>
       </c>
       <c r="B66" t="n">
-        <v>60.70000076293945</v>
+        <v>155.1000061035156</v>
       </c>
       <c r="C66" t="n">
-        <v>61.42499923706055</v>
+        <v>157.3800048828125</v>
       </c>
       <c r="D66" t="n">
-        <v>59.74250030517578</v>
+        <v>152.1900024414062</v>
       </c>
       <c r="E66" t="n">
-        <v>60.35250091552734</v>
+        <v>153.8300018310547</v>
       </c>
       <c r="F66" t="n">
-        <v>58.78204727172852</v>
+        <v>148.0998382568359</v>
       </c>
       <c r="G66" t="n">
-        <v>129880000</v>
+        <v>41243300</v>
       </c>
     </row>
     <row r="67">
@@ -1976,22 +1976,22 @@
         <v>43927</v>
       </c>
       <c r="B67" t="n">
-        <v>62.72499847412109</v>
+        <v>160.3200073242188</v>
       </c>
       <c r="C67" t="n">
-        <v>65.77749633789062</v>
+        <v>166.5</v>
       </c>
       <c r="D67" t="n">
-        <v>62.34500122070312</v>
+        <v>157.5800018310547</v>
       </c>
       <c r="E67" t="n">
-        <v>65.61750030517578</v>
+        <v>165.2700042724609</v>
       </c>
       <c r="F67" t="n">
-        <v>63.91002655029297</v>
+        <v>159.1136932373047</v>
       </c>
       <c r="G67" t="n">
-        <v>201820400</v>
+        <v>67111700</v>
       </c>
     </row>
     <row r="68">
@@ -1999,22 +1999,22 @@
         <v>43928</v>
       </c>
       <c r="B68" t="n">
-        <v>67.69999694824219</v>
+        <v>169.5899963378906</v>
       </c>
       <c r="C68" t="n">
-        <v>67.92500305175781</v>
+        <v>170</v>
       </c>
       <c r="D68" t="n">
-        <v>64.75</v>
+        <v>163.2599945068359</v>
       </c>
       <c r="E68" t="n">
-        <v>64.85749816894531</v>
+        <v>163.4900054931641</v>
       </c>
       <c r="F68" t="n">
-        <v>63.1698112487793</v>
+        <v>157.3999786376953</v>
       </c>
       <c r="G68" t="n">
-        <v>202887200</v>
+        <v>62769000</v>
       </c>
     </row>
     <row r="69">
@@ -2022,22 +2022,22 @@
         <v>43929</v>
       </c>
       <c r="B69" t="n">
-        <v>65.68499755859375</v>
+        <v>165.6699981689453</v>
       </c>
       <c r="C69" t="n">
-        <v>66.84249877929688</v>
+        <v>166.6699981689453</v>
       </c>
       <c r="D69" t="n">
-        <v>65.30750274658203</v>
+        <v>163.5</v>
       </c>
       <c r="E69" t="n">
-        <v>66.51750183105469</v>
+        <v>165.1300048828125</v>
       </c>
       <c r="F69" t="n">
-        <v>64.78662109375</v>
+        <v>158.9788970947266</v>
       </c>
       <c r="G69" t="n">
-        <v>168895200</v>
+        <v>48318200</v>
       </c>
     </row>
     <row r="70">
@@ -2045,22 +2045,22 @@
         <v>43930</v>
       </c>
       <c r="B70" t="n">
-        <v>67.17500305175781</v>
+        <v>166.3600006103516</v>
       </c>
       <c r="C70" t="n">
-        <v>67.51750183105469</v>
+        <v>167.3699951171875</v>
       </c>
       <c r="D70" t="n">
-        <v>66.17500305175781</v>
+        <v>163.3300018310547</v>
       </c>
       <c r="E70" t="n">
-        <v>66.99749755859375</v>
+        <v>165.1399993896484</v>
       </c>
       <c r="F70" t="n">
-        <v>65.25411987304688</v>
+        <v>158.988525390625</v>
       </c>
       <c r="G70" t="n">
-        <v>161834800</v>
+        <v>51385100</v>
       </c>
     </row>
     <row r="71">
@@ -2068,22 +2068,22 @@
         <v>43934</v>
       </c>
       <c r="B71" t="n">
-        <v>67.07749938964844</v>
+        <v>164.3500061035156</v>
       </c>
       <c r="C71" t="n">
-        <v>68.42500305175781</v>
+        <v>165.5700073242188</v>
       </c>
       <c r="D71" t="n">
-        <v>66.45749664306641</v>
+        <v>162.3000030517578</v>
       </c>
       <c r="E71" t="n">
-        <v>68.3125</v>
+        <v>165.5099945068359</v>
       </c>
       <c r="F71" t="n">
-        <v>66.53491973876953</v>
+        <v>159.3447418212891</v>
       </c>
       <c r="G71" t="n">
-        <v>131022800</v>
+        <v>41905300</v>
       </c>
     </row>
     <row r="72">
@@ -2091,22 +2091,22 @@
         <v>43935</v>
       </c>
       <c r="B72" t="n">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="C72" t="n">
-        <v>72.0625</v>
+        <v>173.75</v>
       </c>
       <c r="D72" t="n">
-        <v>69.51249694824219</v>
+        <v>168</v>
       </c>
       <c r="E72" t="n">
-        <v>71.76249694824219</v>
+        <v>173.6999969482422</v>
       </c>
       <c r="F72" t="n">
-        <v>69.89513397216797</v>
+        <v>167.2296447753906</v>
       </c>
       <c r="G72" t="n">
-        <v>194994800</v>
+        <v>52874300</v>
       </c>
     </row>
     <row r="73">
@@ -2114,22 +2114,22 @@
         <v>43936</v>
       </c>
       <c r="B73" t="n">
-        <v>70.59999847412109</v>
+        <v>171.1999969482422</v>
       </c>
       <c r="C73" t="n">
-        <v>71.58249664306641</v>
+        <v>173.5700073242188</v>
       </c>
       <c r="D73" t="n">
-        <v>70.15750122070312</v>
+        <v>169.2400054931641</v>
       </c>
       <c r="E73" t="n">
-        <v>71.10749816894531</v>
+        <v>171.8800048828125</v>
       </c>
       <c r="F73" t="n">
-        <v>69.25717163085938</v>
+        <v>165.4774627685547</v>
       </c>
       <c r="G73" t="n">
-        <v>131154400</v>
+        <v>40940800</v>
       </c>
     </row>
     <row r="74">
@@ -2137,22 +2137,22 @@
         <v>43937</v>
       </c>
       <c r="B74" t="n">
-        <v>71.84500122070312</v>
+        <v>174.3000030517578</v>
       </c>
       <c r="C74" t="n">
-        <v>72.05000305175781</v>
+        <v>177.2799987792969</v>
       </c>
       <c r="D74" t="n">
-        <v>70.58750152587891</v>
+        <v>172.8999938964844</v>
       </c>
       <c r="E74" t="n">
-        <v>71.67250061035156</v>
+        <v>177.0399932861328</v>
       </c>
       <c r="F74" t="n">
-        <v>69.80747985839844</v>
+        <v>170.4452209472656</v>
       </c>
       <c r="G74" t="n">
-        <v>157125200</v>
+        <v>50479600</v>
       </c>
     </row>
     <row r="75">
@@ -2160,22 +2160,22 @@
         <v>43938</v>
       </c>
       <c r="B75" t="n">
-        <v>71.17250061035156</v>
+        <v>179.5</v>
       </c>
       <c r="C75" t="n">
-        <v>71.73750305175781</v>
+        <v>180</v>
       </c>
       <c r="D75" t="n">
-        <v>69.21499633789062</v>
+        <v>175.8699951171875</v>
       </c>
       <c r="E75" t="n">
-        <v>70.69999694824219</v>
+        <v>178.6000061035156</v>
       </c>
       <c r="F75" t="n">
-        <v>68.86029052734375</v>
+        <v>171.9471435546875</v>
       </c>
       <c r="G75" t="n">
-        <v>215250000</v>
+        <v>52765600</v>
       </c>
     </row>
     <row r="76">
@@ -2183,22 +2183,22 @@
         <v>43941</v>
       </c>
       <c r="B76" t="n">
-        <v>69.48750305175781</v>
+        <v>176.6300048828125</v>
       </c>
       <c r="C76" t="n">
-        <v>70.41999816894531</v>
+        <v>178.75</v>
       </c>
       <c r="D76" t="n">
-        <v>69.21250152587891</v>
+        <v>174.9900054931641</v>
       </c>
       <c r="E76" t="n">
-        <v>69.23249816894531</v>
+        <v>175.0599975585938</v>
       </c>
       <c r="F76" t="n">
-        <v>67.43097686767578</v>
+        <v>168.5390167236328</v>
       </c>
       <c r="G76" t="n">
-        <v>130015200</v>
+        <v>36669600</v>
       </c>
     </row>
     <row r="77">
@@ -2206,22 +2206,22 @@
         <v>43942</v>
       </c>
       <c r="B77" t="n">
-        <v>69.06999969482422</v>
+        <v>173.5</v>
       </c>
       <c r="C77" t="n">
-        <v>69.3125</v>
+        <v>173.6699981689453</v>
       </c>
       <c r="D77" t="n">
-        <v>66.35749816894531</v>
+        <v>166.1100006103516</v>
       </c>
       <c r="E77" t="n">
-        <v>67.09249877929688</v>
+        <v>167.8200073242188</v>
       </c>
       <c r="F77" t="n">
-        <v>65.34664916992188</v>
+        <v>161.5687255859375</v>
       </c>
       <c r="G77" t="n">
-        <v>180991600</v>
+        <v>56203700</v>
       </c>
     </row>
     <row r="78">
@@ -2229,22 +2229,22 @@
         <v>43943</v>
       </c>
       <c r="B78" t="n">
-        <v>68.40249633789062</v>
+        <v>171.3899993896484</v>
       </c>
       <c r="C78" t="n">
-        <v>69.47499847412109</v>
+        <v>174</v>
       </c>
       <c r="D78" t="n">
-        <v>68.05000305175781</v>
+        <v>170.8200073242188</v>
       </c>
       <c r="E78" t="n">
-        <v>69.02500152587891</v>
+        <v>173.5200042724609</v>
       </c>
       <c r="F78" t="n">
-        <v>67.22887420654297</v>
+        <v>167.0563507080078</v>
       </c>
       <c r="G78" t="n">
-        <v>116862400</v>
+        <v>34620200</v>
       </c>
     </row>
     <row r="79">
@@ -2252,22 +2252,22 @@
         <v>43944</v>
       </c>
       <c r="B79" t="n">
-        <v>68.96749877929688</v>
+        <v>174.1100006103516</v>
       </c>
       <c r="C79" t="n">
-        <v>70.4375</v>
+        <v>175.0599975585938</v>
       </c>
       <c r="D79" t="n">
-        <v>68.71749877929688</v>
+        <v>170.9100036621094</v>
       </c>
       <c r="E79" t="n">
-        <v>68.75749969482422</v>
+        <v>171.4199981689453</v>
       </c>
       <c r="F79" t="n">
-        <v>66.96833038330078</v>
+        <v>165.0346221923828</v>
       </c>
       <c r="G79" t="n">
-        <v>124814400</v>
+        <v>32790800</v>
       </c>
     </row>
     <row r="80">
@@ -2275,22 +2275,22 @@
         <v>43945</v>
       </c>
       <c r="B80" t="n">
-        <v>69.30000305175781</v>
+        <v>172.0599975585938</v>
       </c>
       <c r="C80" t="n">
-        <v>70.75250244140625</v>
+        <v>174.5599975585938</v>
       </c>
       <c r="D80" t="n">
-        <v>69.25</v>
+        <v>170.7100067138672</v>
       </c>
       <c r="E80" t="n">
-        <v>70.74250030517578</v>
+        <v>174.5500030517578</v>
       </c>
       <c r="F80" t="n">
-        <v>68.90167236328125</v>
+        <v>168.0479888916016</v>
       </c>
       <c r="G80" t="n">
-        <v>126161200</v>
+        <v>34277600</v>
       </c>
     </row>
     <row r="81">
@@ -2298,22 +2298,22 @@
         <v>43948</v>
       </c>
       <c r="B81" t="n">
-        <v>70.44999694824219</v>
+        <v>176.5899963378906</v>
       </c>
       <c r="C81" t="n">
-        <v>71.13500213623047</v>
+        <v>176.8999938964844</v>
       </c>
       <c r="D81" t="n">
-        <v>69.98750305175781</v>
+        <v>173.3000030517578</v>
       </c>
       <c r="E81" t="n">
-        <v>70.79250335693359</v>
+        <v>174.0500030517578</v>
       </c>
       <c r="F81" t="n">
-        <v>68.95040130615234</v>
+        <v>167.5666198730469</v>
       </c>
       <c r="G81" t="n">
-        <v>117087600</v>
+        <v>33194400</v>
       </c>
     </row>
     <row r="82">
@@ -2321,22 +2321,22 @@
         <v>43949</v>
       </c>
       <c r="B82" t="n">
-        <v>71.26999664306641</v>
+        <v>175.5899963378906</v>
       </c>
       <c r="C82" t="n">
-        <v>71.45749664306641</v>
+        <v>175.6699981689453</v>
       </c>
       <c r="D82" t="n">
-        <v>69.55000305175781</v>
+        <v>169.3899993896484</v>
       </c>
       <c r="E82" t="n">
-        <v>69.64499664306641</v>
+        <v>169.8099975585938</v>
       </c>
       <c r="F82" t="n">
-        <v>67.83273315429688</v>
+        <v>163.4845428466797</v>
       </c>
       <c r="G82" t="n">
-        <v>112004800</v>
+        <v>34392700</v>
       </c>
     </row>
     <row r="83">
@@ -2344,22 +2344,22 @@
         <v>43950</v>
       </c>
       <c r="B83" t="n">
-        <v>71.18250274658203</v>
+        <v>173.2200012207031</v>
       </c>
       <c r="C83" t="n">
-        <v>72.41750335693359</v>
+        <v>177.6799926757812</v>
       </c>
       <c r="D83" t="n">
-        <v>70.97250366210938</v>
+        <v>171.8800048828125</v>
       </c>
       <c r="E83" t="n">
-        <v>71.93250274658203</v>
+        <v>177.4299926757812</v>
       </c>
       <c r="F83" t="n">
-        <v>70.06072235107422</v>
+        <v>170.8207244873047</v>
       </c>
       <c r="G83" t="n">
-        <v>137280800</v>
+        <v>51286600</v>
       </c>
     </row>
     <row r="84">
@@ -2367,22 +2367,22 @@
         <v>43951</v>
       </c>
       <c r="B84" t="n">
-        <v>72.48999786376953</v>
+        <v>180</v>
       </c>
       <c r="C84" t="n">
-        <v>73.63249969482422</v>
+        <v>180.3999938964844</v>
       </c>
       <c r="D84" t="n">
-        <v>72.08750152587891</v>
+        <v>176.2299957275391</v>
       </c>
       <c r="E84" t="n">
-        <v>73.44999694824219</v>
+        <v>179.2100067138672</v>
       </c>
       <c r="F84" t="n">
-        <v>71.53872680664062</v>
+        <v>172.5343933105469</v>
       </c>
       <c r="G84" t="n">
-        <v>183064000</v>
+        <v>53875900</v>
       </c>
     </row>
     <row r="85">
@@ -2390,22 +2390,22 @@
         <v>43952</v>
       </c>
       <c r="B85" t="n">
-        <v>71.5625</v>
+        <v>175.8000030517578</v>
       </c>
       <c r="C85" t="n">
-        <v>74.75</v>
+        <v>178.6399993896484</v>
       </c>
       <c r="D85" t="n">
-        <v>71.46250152587891</v>
+        <v>174.0099945068359</v>
       </c>
       <c r="E85" t="n">
-        <v>72.26750183105469</v>
+        <v>174.5700073242188</v>
       </c>
       <c r="F85" t="n">
-        <v>70.38700103759766</v>
+        <v>168.0672607421875</v>
       </c>
       <c r="G85" t="n">
-        <v>240616800</v>
+        <v>39370500</v>
       </c>
     </row>
     <row r="86">
@@ -2413,22 +2413,22 @@
         <v>43955</v>
       </c>
       <c r="B86" t="n">
-        <v>72.29250335693359</v>
+        <v>174.4900054931641</v>
       </c>
       <c r="C86" t="n">
-        <v>73.42250061035156</v>
+        <v>179</v>
       </c>
       <c r="D86" t="n">
-        <v>71.58000183105469</v>
+        <v>173.8000030517578</v>
       </c>
       <c r="E86" t="n">
-        <v>73.29000091552734</v>
+        <v>178.8399963378906</v>
       </c>
       <c r="F86" t="n">
-        <v>71.38289642333984</v>
+        <v>172.1781921386719</v>
       </c>
       <c r="G86" t="n">
-        <v>133568000</v>
+        <v>30372900</v>
       </c>
     </row>
     <row r="87">
@@ -2436,22 +2436,22 @@
         <v>43956</v>
       </c>
       <c r="B87" t="n">
-        <v>73.76499938964844</v>
+        <v>180.6199951171875</v>
       </c>
       <c r="C87" t="n">
-        <v>75.25</v>
+        <v>183.6499938964844</v>
       </c>
       <c r="D87" t="n">
-        <v>73.61499786376953</v>
+        <v>179.8999938964844</v>
       </c>
       <c r="E87" t="n">
-        <v>74.38999938964844</v>
+        <v>180.7599945068359</v>
       </c>
       <c r="F87" t="n">
-        <v>72.45427703857422</v>
+        <v>174.0266571044922</v>
       </c>
       <c r="G87" t="n">
-        <v>147751200</v>
+        <v>36839200</v>
       </c>
     </row>
     <row r="88">
@@ -2459,22 +2459,22 @@
         <v>43957</v>
       </c>
       <c r="B88" t="n">
-        <v>75.11499786376953</v>
+        <v>182.0800018310547</v>
       </c>
       <c r="C88" t="n">
-        <v>75.80999755859375</v>
+        <v>184.1999969482422</v>
       </c>
       <c r="D88" t="n">
-        <v>74.71749877929688</v>
+        <v>181.6300048828125</v>
       </c>
       <c r="E88" t="n">
-        <v>75.15750122070312</v>
+        <v>182.5399932861328</v>
       </c>
       <c r="F88" t="n">
-        <v>73.20180511474609</v>
+        <v>175.7403411865234</v>
       </c>
       <c r="G88" t="n">
-        <v>142333600</v>
+        <v>32139300</v>
       </c>
     </row>
     <row r="89">
@@ -2482,22 +2482,22 @@
         <v>43958</v>
       </c>
       <c r="B89" t="n">
-        <v>75.80500030517578</v>
+        <v>184.1699981689453</v>
       </c>
       <c r="C89" t="n">
-        <v>76.29250335693359</v>
+        <v>184.5500030517578</v>
       </c>
       <c r="D89" t="n">
-        <v>75.49250030517578</v>
+        <v>182.5800018310547</v>
       </c>
       <c r="E89" t="n">
-        <v>75.93499755859375</v>
+        <v>183.6000061035156</v>
       </c>
       <c r="F89" t="n">
-        <v>73.95906829833984</v>
+        <v>176.7609252929688</v>
       </c>
       <c r="G89" t="n">
-        <v>115215200</v>
+        <v>28316000</v>
       </c>
     </row>
     <row r="90">
@@ -2505,22 +2505,22 @@
         <v>43959</v>
       </c>
       <c r="B90" t="n">
-        <v>76.41000366210938</v>
+        <v>184.9799957275391</v>
       </c>
       <c r="C90" t="n">
-        <v>77.58750152587891</v>
+        <v>185</v>
       </c>
       <c r="D90" t="n">
-        <v>76.07250213623047</v>
+        <v>183.3600006103516</v>
       </c>
       <c r="E90" t="n">
-        <v>77.53250122070312</v>
+        <v>184.6799926757812</v>
       </c>
       <c r="F90" t="n">
-        <v>75.71942138671875</v>
+        <v>177.8006591796875</v>
       </c>
       <c r="G90" t="n">
-        <v>133838400</v>
+        <v>30877800</v>
       </c>
     </row>
     <row r="91">
@@ -2528,22 +2528,22 @@
         <v>43962</v>
       </c>
       <c r="B91" t="n">
-        <v>77.02500152587891</v>
+        <v>183.1499938964844</v>
       </c>
       <c r="C91" t="n">
-        <v>79.26249694824219</v>
+        <v>187.5099945068359</v>
       </c>
       <c r="D91" t="n">
-        <v>76.80999755859375</v>
+        <v>182.8500061035156</v>
       </c>
       <c r="E91" t="n">
-        <v>78.75250244140625</v>
+        <v>186.7400054931641</v>
       </c>
       <c r="F91" t="n">
-        <v>76.91088104248047</v>
+        <v>179.783935546875</v>
       </c>
       <c r="G91" t="n">
-        <v>145946400</v>
+        <v>30892700</v>
       </c>
     </row>
     <row r="92">
@@ -2551,22 +2551,22 @@
         <v>43963</v>
       </c>
       <c r="B92" t="n">
-        <v>79.45749664306641</v>
+        <v>186.8000030517578</v>
       </c>
       <c r="C92" t="n">
-        <v>79.92250061035156</v>
+        <v>187.0399932861328</v>
       </c>
       <c r="D92" t="n">
-        <v>77.72750091552734</v>
+        <v>182.3000030517578</v>
       </c>
       <c r="E92" t="n">
-        <v>77.85250091552734</v>
+        <v>182.5099945068359</v>
       </c>
       <c r="F92" t="n">
-        <v>76.03192138671875</v>
+        <v>175.7114715576172</v>
       </c>
       <c r="G92" t="n">
-        <v>162301200</v>
+        <v>32038200</v>
       </c>
     </row>
     <row r="93">
@@ -2574,22 +2574,22 @@
         <v>43964</v>
       </c>
       <c r="B93" t="n">
-        <v>78.03749847412109</v>
+        <v>182.5500030517578</v>
       </c>
       <c r="C93" t="n">
-        <v>78.98750305175781</v>
+        <v>184.0500030517578</v>
       </c>
       <c r="D93" t="n">
-        <v>75.80249786376953</v>
+        <v>176.5399932861328</v>
       </c>
       <c r="E93" t="n">
-        <v>76.91249847412109</v>
+        <v>179.75</v>
       </c>
       <c r="F93" t="n">
-        <v>75.11392211914062</v>
+        <v>173.0543212890625</v>
       </c>
       <c r="G93" t="n">
-        <v>200622400</v>
+        <v>44711500</v>
       </c>
     </row>
     <row r="94">
@@ -2597,22 +2597,22 @@
         <v>43965</v>
       </c>
       <c r="B94" t="n">
-        <v>76.12750244140625</v>
+        <v>177.5399932861328</v>
       </c>
       <c r="C94" t="n">
-        <v>77.44750213623047</v>
+        <v>180.6900024414062</v>
       </c>
       <c r="D94" t="n">
-        <v>75.38249969482422</v>
+        <v>175.6799926757812</v>
       </c>
       <c r="E94" t="n">
-        <v>77.38500213623047</v>
+        <v>180.5299987792969</v>
       </c>
       <c r="F94" t="n">
-        <v>75.57536315917969</v>
+        <v>173.8052215576172</v>
       </c>
       <c r="G94" t="n">
-        <v>158929200</v>
+        <v>41873900</v>
       </c>
     </row>
     <row r="95">
@@ -2620,22 +2620,22 @@
         <v>43966</v>
       </c>
       <c r="B95" t="n">
-        <v>75.08750152587891</v>
+        <v>179.0599975585938</v>
       </c>
       <c r="C95" t="n">
-        <v>76.97499847412109</v>
+        <v>187.0599975585938</v>
       </c>
       <c r="D95" t="n">
-        <v>75.05249786376953</v>
+        <v>177</v>
       </c>
       <c r="E95" t="n">
-        <v>76.92749786376953</v>
+        <v>183.1600036621094</v>
       </c>
       <c r="F95" t="n">
-        <v>75.12857055664062</v>
+        <v>176.3372650146484</v>
       </c>
       <c r="G95" t="n">
-        <v>166348400</v>
+        <v>46610400</v>
       </c>
     </row>
     <row r="96">
@@ -2643,22 +2643,22 @@
         <v>43969</v>
       </c>
       <c r="B96" t="n">
-        <v>78.29250335693359</v>
+        <v>185.75</v>
       </c>
       <c r="C96" t="n">
-        <v>79.125</v>
+        <v>186.1999969482422</v>
       </c>
       <c r="D96" t="n">
-        <v>77.58000183105469</v>
+        <v>183.9600067138672</v>
       </c>
       <c r="E96" t="n">
-        <v>78.73999786376953</v>
+        <v>184.9100036621094</v>
       </c>
       <c r="F96" t="n">
-        <v>76.898681640625</v>
+        <v>178.0220947265625</v>
       </c>
       <c r="G96" t="n">
-        <v>135178400</v>
+        <v>35264500</v>
       </c>
     </row>
     <row r="97">
@@ -2666,22 +2666,22 @@
         <v>43970</v>
       </c>
       <c r="B97" t="n">
-        <v>78.75749969482422</v>
+        <v>185.0299987792969</v>
       </c>
       <c r="C97" t="n">
-        <v>79.62999725341797</v>
+        <v>186.6000061035156</v>
       </c>
       <c r="D97" t="n">
-        <v>78.25250244140625</v>
+        <v>183.4900054931641</v>
       </c>
       <c r="E97" t="n">
-        <v>78.28500366210938</v>
+        <v>183.6300048828125</v>
       </c>
       <c r="F97" t="n">
-        <v>76.45431518554688</v>
+        <v>176.7897644042969</v>
       </c>
       <c r="G97" t="n">
-        <v>101729600</v>
+        <v>26799100</v>
       </c>
     </row>
     <row r="98">
@@ -2689,22 +2689,22 @@
         <v>43971</v>
       </c>
       <c r="B98" t="n">
-        <v>79.16999816894531</v>
+        <v>184.8099975585938</v>
       </c>
       <c r="C98" t="n">
-        <v>79.87999725341797</v>
+        <v>185.8500061035156</v>
       </c>
       <c r="D98" t="n">
-        <v>79.12999725341797</v>
+        <v>183.9400024414062</v>
       </c>
       <c r="E98" t="n">
-        <v>79.80750274658203</v>
+        <v>185.6600036621094</v>
       </c>
       <c r="F98" t="n">
-        <v>77.94122314453125</v>
+        <v>179.2419586181641</v>
       </c>
       <c r="G98" t="n">
-        <v>111504800</v>
+        <v>31261300</v>
       </c>
     </row>
     <row r="99">
@@ -2712,22 +2712,22 @@
         <v>43972</v>
       </c>
       <c r="B99" t="n">
-        <v>79.66500091552734</v>
+        <v>185.3999938964844</v>
       </c>
       <c r="C99" t="n">
-        <v>80.22250366210938</v>
+        <v>186.6699981689453</v>
       </c>
       <c r="D99" t="n">
-        <v>78.96749877929688</v>
+        <v>183.2899932861328</v>
       </c>
       <c r="E99" t="n">
-        <v>79.21250152587891</v>
+        <v>183.4299926757812</v>
       </c>
       <c r="F99" t="n">
-        <v>77.36013031005859</v>
+        <v>177.0890502929688</v>
       </c>
       <c r="G99" t="n">
-        <v>102688800</v>
+        <v>29119500</v>
       </c>
     </row>
     <row r="100">
@@ -2735,22 +2735,22 @@
         <v>43973</v>
       </c>
       <c r="B100" t="n">
-        <v>78.94249725341797</v>
+        <v>183.1900024414062</v>
       </c>
       <c r="C100" t="n">
-        <v>79.80750274658203</v>
+        <v>184.4600067138672</v>
       </c>
       <c r="D100" t="n">
-        <v>78.83750152587891</v>
+        <v>182.5399932861328</v>
       </c>
       <c r="E100" t="n">
-        <v>79.72250366210938</v>
+        <v>183.5099945068359</v>
       </c>
       <c r="F100" t="n">
-        <v>77.85821533203125</v>
+        <v>177.1663055419922</v>
       </c>
       <c r="G100" t="n">
-        <v>81803200</v>
+        <v>20826900</v>
       </c>
     </row>
     <row r="101">
@@ -2758,22 +2758,22 @@
         <v>43977</v>
       </c>
       <c r="B101" t="n">
-        <v>80.875</v>
+        <v>186.3399963378906</v>
       </c>
       <c r="C101" t="n">
-        <v>81.05999755859375</v>
+        <v>186.5</v>
       </c>
       <c r="D101" t="n">
-        <v>79.125</v>
+        <v>181.1000061035156</v>
       </c>
       <c r="E101" t="n">
-        <v>79.18250274658203</v>
+        <v>181.5700073242188</v>
       </c>
       <c r="F101" t="n">
-        <v>77.33084869384766</v>
+        <v>175.2933807373047</v>
       </c>
       <c r="G101" t="n">
-        <v>125522000</v>
+        <v>36073600</v>
       </c>
     </row>
     <row r="102">
@@ -2781,22 +2781,22 @@
         <v>43978</v>
       </c>
       <c r="B102" t="n">
-        <v>79.03500366210938</v>
+        <v>180.1999969482422</v>
       </c>
       <c r="C102" t="n">
-        <v>79.67749786376953</v>
+        <v>181.9900054931641</v>
       </c>
       <c r="D102" t="n">
-        <v>78.27249908447266</v>
+        <v>176.6000061035156</v>
       </c>
       <c r="E102" t="n">
-        <v>79.52749633789062</v>
+        <v>181.8099975585938</v>
       </c>
       <c r="F102" t="n">
-        <v>77.66777038574219</v>
+        <v>175.5250549316406</v>
       </c>
       <c r="G102" t="n">
-        <v>112945200</v>
+        <v>39517100</v>
       </c>
     </row>
     <row r="103">
@@ -2804,22 +2804,22 @@
         <v>43979</v>
       </c>
       <c r="B103" t="n">
-        <v>79.19249725341797</v>
+        <v>180.7400054931641</v>
       </c>
       <c r="C103" t="n">
-        <v>80.86000061035156</v>
+        <v>184.1499938964844</v>
       </c>
       <c r="D103" t="n">
-        <v>78.90750122070312</v>
+        <v>180.3800048828125</v>
       </c>
       <c r="E103" t="n">
-        <v>79.5625</v>
+        <v>181.3999938964844</v>
       </c>
       <c r="F103" t="n">
-        <v>77.70193481445312</v>
+        <v>175.1292419433594</v>
       </c>
       <c r="G103" t="n">
-        <v>133560800</v>
+        <v>33810200</v>
       </c>
     </row>
     <row r="104">
@@ -2827,22 +2827,22 @@
         <v>43980</v>
       </c>
       <c r="B104" t="n">
-        <v>79.8125</v>
+        <v>182.7299957275391</v>
       </c>
       <c r="C104" t="n">
-        <v>80.28749847412109</v>
+        <v>184.2700042724609</v>
       </c>
       <c r="D104" t="n">
-        <v>79.11750030517578</v>
+        <v>180.4100036621094</v>
       </c>
       <c r="E104" t="n">
-        <v>79.48500061035156</v>
+        <v>183.25</v>
       </c>
       <c r="F104" t="n">
-        <v>77.62625122070312</v>
+        <v>176.9153137207031</v>
       </c>
       <c r="G104" t="n">
-        <v>153532400</v>
+        <v>42130400</v>
       </c>
     </row>
     <row r="105">
@@ -2850,22 +2850,22 @@
         <v>43983</v>
       </c>
       <c r="B105" t="n">
-        <v>79.4375</v>
+        <v>182.5399932861328</v>
       </c>
       <c r="C105" t="n">
-        <v>80.58750152587891</v>
+        <v>183</v>
       </c>
       <c r="D105" t="n">
-        <v>79.30249786376953</v>
+        <v>181.4600067138672</v>
       </c>
       <c r="E105" t="n">
-        <v>80.46250152587891</v>
+        <v>182.8300018310547</v>
       </c>
       <c r="F105" t="n">
-        <v>78.58089447021484</v>
+        <v>176.5097808837891</v>
       </c>
       <c r="G105" t="n">
-        <v>80791200</v>
+        <v>22622400</v>
       </c>
     </row>
     <row r="106">
@@ -2873,22 +2873,22 @@
         <v>43984</v>
       </c>
       <c r="B106" t="n">
-        <v>80.1875</v>
+        <v>184.25</v>
       </c>
       <c r="C106" t="n">
-        <v>80.86000061035156</v>
+        <v>185</v>
       </c>
       <c r="D106" t="n">
-        <v>79.73249816894531</v>
+        <v>181.3500061035156</v>
       </c>
       <c r="E106" t="n">
-        <v>80.83499908447266</v>
+        <v>184.9100036621094</v>
       </c>
       <c r="F106" t="n">
-        <v>78.94468688964844</v>
+        <v>178.5178833007812</v>
       </c>
       <c r="G106" t="n">
-        <v>87642800</v>
+        <v>30794600</v>
       </c>
     </row>
     <row r="107">
@@ -2896,22 +2896,22 @@
         <v>43985</v>
       </c>
       <c r="B107" t="n">
-        <v>81.16500091552734</v>
+        <v>184.8200073242188</v>
       </c>
       <c r="C107" t="n">
-        <v>81.55000305175781</v>
+        <v>185.9400024414062</v>
       </c>
       <c r="D107" t="n">
-        <v>80.57499694824219</v>
+        <v>183.5800018310547</v>
       </c>
       <c r="E107" t="n">
-        <v>81.27999877929688</v>
+        <v>185.3600006103516</v>
       </c>
       <c r="F107" t="n">
-        <v>79.37929534912109</v>
+        <v>178.9523620605469</v>
       </c>
       <c r="G107" t="n">
-        <v>104491200</v>
+        <v>27311000</v>
       </c>
     </row>
     <row r="108">
@@ -2919,22 +2919,22 @@
         <v>43986</v>
       </c>
       <c r="B108" t="n">
-        <v>81.09750366210938</v>
+        <v>184.3000030517578</v>
       </c>
       <c r="C108" t="n">
-        <v>81.40499877929688</v>
+        <v>185.8399963378906</v>
       </c>
       <c r="D108" t="n">
-        <v>80.19499969482422</v>
+        <v>182.3000030517578</v>
       </c>
       <c r="E108" t="n">
-        <v>80.58000183105469</v>
+        <v>182.9199981689453</v>
       </c>
       <c r="F108" t="n">
-        <v>78.69565582275391</v>
+        <v>176.5967102050781</v>
       </c>
       <c r="G108" t="n">
-        <v>87560400</v>
+        <v>28761800</v>
       </c>
     </row>
     <row r="109">
@@ -2942,22 +2942,22 @@
         <v>43987</v>
       </c>
       <c r="B109" t="n">
-        <v>80.83750152587891</v>
+        <v>182.6199951171875</v>
       </c>
       <c r="C109" t="n">
-        <v>82.9375</v>
+        <v>187.7299957275391</v>
       </c>
       <c r="D109" t="n">
-        <v>80.80750274658203</v>
+        <v>182.0099945068359</v>
       </c>
       <c r="E109" t="n">
-        <v>82.875</v>
+        <v>187.1999969482422</v>
       </c>
       <c r="F109" t="n">
-        <v>80.93698120117188</v>
+        <v>180.7287139892578</v>
       </c>
       <c r="G109" t="n">
-        <v>137250400</v>
+        <v>39893600</v>
       </c>
     </row>
     <row r="110">
@@ -2965,22 +2965,22 @@
         <v>43990</v>
       </c>
       <c r="B110" t="n">
-        <v>82.5625</v>
+        <v>185.9400024414062</v>
       </c>
       <c r="C110" t="n">
-        <v>83.40000152587891</v>
+        <v>188.5500030517578</v>
       </c>
       <c r="D110" t="n">
-        <v>81.83000183105469</v>
+        <v>184.4400024414062</v>
       </c>
       <c r="E110" t="n">
-        <v>83.36499786376953</v>
+        <v>188.3600006103516</v>
       </c>
       <c r="F110" t="n">
-        <v>81.41551971435547</v>
+        <v>181.8486328125</v>
       </c>
       <c r="G110" t="n">
-        <v>95654400</v>
+        <v>33211600</v>
       </c>
     </row>
     <row r="111">
@@ -2988,22 +2988,22 @@
         <v>43991</v>
       </c>
       <c r="B111" t="n">
-        <v>83.03500366210938</v>
+        <v>188</v>
       </c>
       <c r="C111" t="n">
-        <v>86.40249633789062</v>
+        <v>190.6999969482422</v>
       </c>
       <c r="D111" t="n">
-        <v>83.00250244140625</v>
+        <v>187.2599945068359</v>
       </c>
       <c r="E111" t="n">
-        <v>85.99749755859375</v>
+        <v>189.8000030517578</v>
       </c>
       <c r="F111" t="n">
-        <v>83.9864501953125</v>
+        <v>183.2388610839844</v>
       </c>
       <c r="G111" t="n">
-        <v>147712400</v>
+        <v>29783900</v>
       </c>
     </row>
     <row r="112">
@@ -3011,22 +3011,22 @@
         <v>43992</v>
       </c>
       <c r="B112" t="n">
-        <v>86.97499847412109</v>
+        <v>191.1300048828125</v>
       </c>
       <c r="C112" t="n">
-        <v>88.69249725341797</v>
+        <v>198.5200042724609</v>
       </c>
       <c r="D112" t="n">
-        <v>86.52249908447266</v>
+        <v>191.0099945068359</v>
       </c>
       <c r="E112" t="n">
-        <v>88.20999908447266</v>
+        <v>196.8399963378906</v>
       </c>
       <c r="F112" t="n">
-        <v>86.147216796875</v>
+        <v>190.0354614257812</v>
       </c>
       <c r="G112" t="n">
-        <v>166651600</v>
+        <v>43872300</v>
       </c>
     </row>
     <row r="113">
@@ -3034,22 +3034,22 @@
         <v>43993</v>
       </c>
       <c r="B113" t="n">
-        <v>87.32749938964844</v>
+        <v>193.1300048828125</v>
       </c>
       <c r="C113" t="n">
-        <v>87.76499938964844</v>
+        <v>195.7599945068359</v>
       </c>
       <c r="D113" t="n">
-        <v>83.87000274658203</v>
+        <v>186.0700073242188</v>
       </c>
       <c r="E113" t="n">
-        <v>83.97499847412109</v>
+        <v>186.2700042724609</v>
       </c>
       <c r="F113" t="n">
-        <v>82.01125335693359</v>
+        <v>179.8308868408203</v>
       </c>
       <c r="G113" t="n">
-        <v>201662400</v>
+        <v>52854700</v>
       </c>
     </row>
     <row r="114">
@@ -3057,22 +3057,22 @@
         <v>43994</v>
       </c>
       <c r="B114" t="n">
-        <v>86.18000030517578</v>
+        <v>190.5399932861328</v>
       </c>
       <c r="C114" t="n">
-        <v>86.94999694824219</v>
+        <v>191.7200012207031</v>
       </c>
       <c r="D114" t="n">
-        <v>83.55500030517578</v>
+        <v>185.1799926757812</v>
       </c>
       <c r="E114" t="n">
-        <v>84.69999694824219</v>
+        <v>187.7400054931641</v>
       </c>
       <c r="F114" t="n">
-        <v>82.71929168701172</v>
+        <v>181.2500610351562</v>
       </c>
       <c r="G114" t="n">
-        <v>200146000</v>
+        <v>43373600</v>
       </c>
     </row>
     <row r="115">
@@ -3080,22 +3080,22 @@
         <v>43997</v>
       </c>
       <c r="B115" t="n">
-        <v>83.3125</v>
+        <v>184.5800018310547</v>
       </c>
       <c r="C115" t="n">
-        <v>86.41999816894531</v>
+        <v>190.8200073242188</v>
       </c>
       <c r="D115" t="n">
-        <v>83.14499664306641</v>
+        <v>184.0099945068359</v>
       </c>
       <c r="E115" t="n">
-        <v>85.74749755859375</v>
+        <v>188.9400024414062</v>
       </c>
       <c r="F115" t="n">
-        <v>83.74228668212891</v>
+        <v>182.4085693359375</v>
       </c>
       <c r="G115" t="n">
-        <v>138808800</v>
+        <v>32770200</v>
       </c>
     </row>
     <row r="116">
@@ -3103,22 +3103,22 @@
         <v>43998</v>
       </c>
       <c r="B116" t="n">
-        <v>87.86499786376953</v>
+        <v>192.8899993896484</v>
       </c>
       <c r="C116" t="n">
-        <v>88.30000305175781</v>
+        <v>195.5800018310547</v>
       </c>
       <c r="D116" t="n">
-        <v>86.18000030517578</v>
+        <v>191.4600067138672</v>
       </c>
       <c r="E116" t="n">
-        <v>88.01999664306641</v>
+        <v>193.5700073242188</v>
       </c>
       <c r="F116" t="n">
-        <v>85.961669921875</v>
+        <v>186.8785705566406</v>
       </c>
       <c r="G116" t="n">
-        <v>165428800</v>
+        <v>42556700</v>
       </c>
     </row>
     <row r="117">
@@ -3126,22 +3126,22 @@
         <v>43999</v>
       </c>
       <c r="B117" t="n">
-        <v>88.78749847412109</v>
+        <v>195.0299987792969</v>
       </c>
       <c r="C117" t="n">
-        <v>88.84999847412109</v>
+        <v>196.3200073242188</v>
       </c>
       <c r="D117" t="n">
-        <v>87.77249908447266</v>
+        <v>193.6900024414062</v>
       </c>
       <c r="E117" t="n">
-        <v>87.89749908447266</v>
+        <v>194.2400054931641</v>
       </c>
       <c r="F117" t="n">
-        <v>85.84203338623047</v>
+        <v>187.5253448486328</v>
       </c>
       <c r="G117" t="n">
-        <v>114406400</v>
+        <v>25687800</v>
       </c>
     </row>
     <row r="118">
@@ -3149,22 +3149,22 @@
         <v>44000</v>
       </c>
       <c r="B118" t="n">
-        <v>87.85250091552734</v>
+        <v>194</v>
       </c>
       <c r="C118" t="n">
-        <v>88.36250305175781</v>
+        <v>196.4900054931641</v>
       </c>
       <c r="D118" t="n">
-        <v>87.30500030517578</v>
+        <v>194</v>
       </c>
       <c r="E118" t="n">
-        <v>87.93250274658203</v>
+        <v>196.3200073242188</v>
       </c>
       <c r="F118" t="n">
-        <v>85.876220703125</v>
+        <v>189.5334320068359</v>
       </c>
       <c r="G118" t="n">
-        <v>96820400</v>
+        <v>23061600</v>
       </c>
     </row>
     <row r="119">
@@ -3172,22 +3172,22 @@
         <v>44001</v>
       </c>
       <c r="B119" t="n">
-        <v>88.66000366210938</v>
+        <v>198.5899963378906</v>
       </c>
       <c r="C119" t="n">
-        <v>89.13999938964844</v>
+        <v>199.2899932861328</v>
       </c>
       <c r="D119" t="n">
-        <v>86.28749847412109</v>
+        <v>194.3699951171875</v>
       </c>
       <c r="E119" t="n">
-        <v>87.43000030517578</v>
+        <v>195.1499938964844</v>
       </c>
       <c r="F119" t="n">
-        <v>85.38546752929688</v>
+        <v>188.4039001464844</v>
       </c>
       <c r="G119" t="n">
-        <v>264476000</v>
+        <v>44441100</v>
       </c>
     </row>
     <row r="120">
@@ -3195,22 +3195,22 @@
         <v>44004</v>
       </c>
       <c r="B120" t="n">
-        <v>87.83499908447266</v>
+        <v>195.7899932861328</v>
       </c>
       <c r="C120" t="n">
-        <v>89.86499786376953</v>
+        <v>200.7599945068359</v>
       </c>
       <c r="D120" t="n">
-        <v>87.78749847412109</v>
+        <v>195.2299957275391</v>
       </c>
       <c r="E120" t="n">
-        <v>89.71749877929688</v>
+        <v>200.5700073242188</v>
       </c>
       <c r="F120" t="n">
-        <v>87.61947631835938</v>
+        <v>193.6365356445312</v>
       </c>
       <c r="G120" t="n">
-        <v>135445200</v>
+        <v>32818900</v>
       </c>
     </row>
     <row r="121">
@@ -3218,22 +3218,22 @@
         <v>44005</v>
       </c>
       <c r="B121" t="n">
-        <v>91</v>
+        <v>202.0899963378906</v>
       </c>
       <c r="C121" t="n">
-        <v>93.09500122070312</v>
+        <v>203.9499969482422</v>
       </c>
       <c r="D121" t="n">
-        <v>90.56749725341797</v>
+        <v>201.4299926757812</v>
       </c>
       <c r="E121" t="n">
-        <v>91.63249969482422</v>
+        <v>201.9100036621094</v>
       </c>
       <c r="F121" t="n">
-        <v>89.48970794677734</v>
+        <v>194.93017578125</v>
       </c>
       <c r="G121" t="n">
-        <v>212155600</v>
+        <v>30917400</v>
       </c>
     </row>
     <row r="122">
@@ -3241,22 +3241,22 @@
         <v>44006</v>
       </c>
       <c r="B122" t="n">
-        <v>91.25</v>
+        <v>201.6000061035156</v>
       </c>
       <c r="C122" t="n">
-        <v>92.19750213623047</v>
+        <v>203.25</v>
       </c>
       <c r="D122" t="n">
-        <v>89.62999725341797</v>
+        <v>196.5599975585938</v>
       </c>
       <c r="E122" t="n">
-        <v>90.01499938964844</v>
+        <v>197.8399963378906</v>
       </c>
       <c r="F122" t="n">
-        <v>87.91001892089844</v>
+        <v>191.0009155273438</v>
       </c>
       <c r="G122" t="n">
-        <v>192623200</v>
+        <v>36740600</v>
       </c>
     </row>
     <row r="123">
@@ -3264,22 +3264,22 @@
         <v>44007</v>
       </c>
       <c r="B123" t="n">
-        <v>90.17500305175781</v>
+        <v>197.8000030517578</v>
       </c>
       <c r="C123" t="n">
-        <v>91.25</v>
+        <v>200.6100006103516</v>
       </c>
       <c r="D123" t="n">
-        <v>89.39250183105469</v>
+        <v>195.4700012207031</v>
       </c>
       <c r="E123" t="n">
-        <v>91.20999908447266</v>
+        <v>200.3399963378906</v>
       </c>
       <c r="F123" t="n">
-        <v>89.07706451416016</v>
+        <v>193.4144592285156</v>
       </c>
       <c r="G123" t="n">
-        <v>137522400</v>
+        <v>27803900</v>
       </c>
     </row>
     <row r="124">
@@ -3287,22 +3287,22 @@
         <v>44008</v>
       </c>
       <c r="B124" t="n">
-        <v>91.10250091552734</v>
+        <v>199.7299957275391</v>
       </c>
       <c r="C124" t="n">
-        <v>91.33000183105469</v>
+        <v>199.8899993896484</v>
       </c>
       <c r="D124" t="n">
-        <v>88.25499725341797</v>
+        <v>194.8800048828125</v>
       </c>
       <c r="E124" t="n">
-        <v>88.40750122070312</v>
+        <v>196.3300018310547</v>
       </c>
       <c r="F124" t="n">
-        <v>86.34011077880859</v>
+        <v>189.5431060791016</v>
       </c>
       <c r="G124" t="n">
-        <v>205256800</v>
+        <v>54675800</v>
       </c>
     </row>
     <row r="125">
@@ -3310,22 +3310,22 @@
         <v>44011</v>
       </c>
       <c r="B125" t="n">
-        <v>88.3125</v>
+        <v>195.7799987792969</v>
       </c>
       <c r="C125" t="n">
-        <v>90.54250335693359</v>
+        <v>198.5299987792969</v>
       </c>
       <c r="D125" t="n">
-        <v>87.81999969482422</v>
+        <v>193.5500030517578</v>
       </c>
       <c r="E125" t="n">
-        <v>90.44499969482422</v>
+        <v>198.4400024414062</v>
       </c>
       <c r="F125" t="n">
-        <v>88.32994079589844</v>
+        <v>191.5801696777344</v>
       </c>
       <c r="G125" t="n">
-        <v>130646000</v>
+        <v>26701600</v>
       </c>
     </row>
     <row r="126">
@@ -3333,22 +3333,22 @@
         <v>44012</v>
       </c>
       <c r="B126" t="n">
-        <v>90.01999664306641</v>
+        <v>197.8800048828125</v>
       </c>
       <c r="C126" t="n">
-        <v>91.49500274658203</v>
+        <v>204.3999938964844</v>
       </c>
       <c r="D126" t="n">
-        <v>90</v>
+        <v>197.7400054931641</v>
       </c>
       <c r="E126" t="n">
-        <v>91.19999694824219</v>
+        <v>203.5099945068359</v>
       </c>
       <c r="F126" t="n">
-        <v>89.06729125976562</v>
+        <v>196.4749298095703</v>
       </c>
       <c r="G126" t="n">
-        <v>140223200</v>
+        <v>34310300</v>
       </c>
     </row>
     <row r="127">
@@ -3356,22 +3356,22 @@
         <v>44013</v>
       </c>
       <c r="B127" t="n">
-        <v>91.27999877929688</v>
+        <v>203.1399993896484</v>
       </c>
       <c r="C127" t="n">
-        <v>91.83999633789062</v>
+        <v>206.3500061035156</v>
       </c>
       <c r="D127" t="n">
-        <v>90.97750091552734</v>
+        <v>201.7700042724609</v>
       </c>
       <c r="E127" t="n">
-        <v>91.02749633789062</v>
+        <v>204.6999969482422</v>
       </c>
       <c r="F127" t="n">
-        <v>88.89884185791016</v>
+        <v>197.623779296875</v>
       </c>
       <c r="G127" t="n">
-        <v>110737200</v>
+        <v>32061200</v>
       </c>
     </row>
     <row r="128">
@@ -3379,22 +3379,22 @@
         <v>44014</v>
       </c>
       <c r="B128" t="n">
-        <v>91.96250152587891</v>
+        <v>205.6799926757812</v>
       </c>
       <c r="C128" t="n">
-        <v>92.61750030517578</v>
+        <v>208.0200042724609</v>
       </c>
       <c r="D128" t="n">
-        <v>90.91000366210938</v>
+        <v>205</v>
       </c>
       <c r="E128" t="n">
-        <v>91.02749633789062</v>
+        <v>206.2599945068359</v>
       </c>
       <c r="F128" t="n">
-        <v>88.89884185791016</v>
+        <v>199.1298370361328</v>
       </c>
       <c r="G128" t="n">
-        <v>114041600</v>
+        <v>29315800</v>
       </c>
     </row>
     <row r="129">
@@ -3402,22 +3402,22 @@
         <v>44018</v>
       </c>
       <c r="B129" t="n">
-        <v>92.5</v>
+        <v>208.8300018310547</v>
       </c>
       <c r="C129" t="n">
-        <v>93.94499969482422</v>
+        <v>211.1300048828125</v>
       </c>
       <c r="D129" t="n">
-        <v>92.46749877929688</v>
+        <v>208.0899963378906</v>
       </c>
       <c r="E129" t="n">
-        <v>93.46250152587891</v>
+        <v>210.6999969482422</v>
       </c>
       <c r="F129" t="n">
-        <v>91.27689361572266</v>
+        <v>203.4163208007812</v>
       </c>
       <c r="G129" t="n">
-        <v>118655600</v>
+        <v>31897600</v>
       </c>
     </row>
     <row r="130">
@@ -3425,22 +3425,22 @@
         <v>44019</v>
       </c>
       <c r="B130" t="n">
-        <v>93.85250091552734</v>
+        <v>210.4499969482422</v>
       </c>
       <c r="C130" t="n">
-        <v>94.65499877929688</v>
+        <v>214.6699981689453</v>
       </c>
       <c r="D130" t="n">
-        <v>93.05750274658203</v>
+        <v>207.9900054931641</v>
       </c>
       <c r="E130" t="n">
-        <v>93.17250061035156</v>
+        <v>208.25</v>
       </c>
       <c r="F130" t="n">
-        <v>90.99366760253906</v>
+        <v>201.0510406494141</v>
       </c>
       <c r="G130" t="n">
-        <v>112424400</v>
+        <v>33600700</v>
       </c>
     </row>
     <row r="131">
@@ -3448,22 +3448,22 @@
         <v>44020</v>
       </c>
       <c r="B131" t="n">
-        <v>94.18000030517578</v>
+        <v>210.0700073242188</v>
       </c>
       <c r="C131" t="n">
-        <v>95.375</v>
+        <v>213.2599945068359</v>
       </c>
       <c r="D131" t="n">
-        <v>94.08999633789062</v>
+        <v>208.6900024414062</v>
       </c>
       <c r="E131" t="n">
-        <v>95.34249877929688</v>
+        <v>212.8300018310547</v>
       </c>
       <c r="F131" t="n">
-        <v>93.11293792724609</v>
+        <v>205.4727325439453</v>
       </c>
       <c r="G131" t="n">
-        <v>117092000</v>
+        <v>33600000</v>
       </c>
     </row>
     <row r="132">
@@ -3471,22 +3471,22 @@
         <v>44021</v>
       </c>
       <c r="B132" t="n">
-        <v>96.26249694824219</v>
+        <v>216.3300018310547</v>
       </c>
       <c r="C132" t="n">
-        <v>96.31749725341797</v>
+        <v>216.3800048828125</v>
       </c>
       <c r="D132" t="n">
-        <v>94.67250061035156</v>
+        <v>211.4700012207031</v>
       </c>
       <c r="E132" t="n">
-        <v>95.75250244140625</v>
+        <v>214.3200073242188</v>
       </c>
       <c r="F132" t="n">
-        <v>93.51335144042969</v>
+        <v>206.9112091064453</v>
       </c>
       <c r="G132" t="n">
-        <v>125642800</v>
+        <v>33121700</v>
       </c>
     </row>
     <row r="133">
@@ -3494,22 +3494,22 @@
         <v>44022</v>
       </c>
       <c r="B133" t="n">
-        <v>95.33499908447266</v>
+        <v>213.6199951171875</v>
       </c>
       <c r="C133" t="n">
-        <v>95.98000335693359</v>
+        <v>214.0800018310547</v>
       </c>
       <c r="D133" t="n">
-        <v>94.70500183105469</v>
+        <v>211.0800018310547</v>
       </c>
       <c r="E133" t="n">
-        <v>95.91999816894531</v>
+        <v>213.6699981689453</v>
       </c>
       <c r="F133" t="n">
-        <v>93.67691802978516</v>
+        <v>206.2837066650391</v>
       </c>
       <c r="G133" t="n">
-        <v>90257200</v>
+        <v>26177600</v>
       </c>
     </row>
     <row r="134">
@@ -3517,22 +3517,22 @@
         <v>44025</v>
       </c>
       <c r="B134" t="n">
-        <v>97.26499938964844</v>
+        <v>214.4799957275391</v>
       </c>
       <c r="C134" t="n">
-        <v>99.95500183105469</v>
+        <v>215.8000030517578</v>
       </c>
       <c r="D134" t="n">
-        <v>95.25749969482422</v>
+        <v>206.5</v>
       </c>
       <c r="E134" t="n">
-        <v>95.47750091552734</v>
+        <v>207.0700073242188</v>
       </c>
       <c r="F134" t="n">
-        <v>93.24477386474609</v>
+        <v>199.9118499755859</v>
       </c>
       <c r="G134" t="n">
-        <v>191649200</v>
+        <v>38135600</v>
       </c>
     </row>
     <row r="135">
@@ -3540,22 +3540,22 @@
         <v>44026</v>
       </c>
       <c r="B135" t="n">
-        <v>94.83999633789062</v>
+        <v>206.1300048828125</v>
       </c>
       <c r="C135" t="n">
-        <v>97.25499725341797</v>
+        <v>208.8500061035156</v>
       </c>
       <c r="D135" t="n">
-        <v>93.87750244140625</v>
+        <v>202.0299987792969</v>
       </c>
       <c r="E135" t="n">
-        <v>97.05750274658203</v>
+        <v>208.3500061035156</v>
       </c>
       <c r="F135" t="n">
-        <v>94.78783416748047</v>
+        <v>201.1475982666016</v>
       </c>
       <c r="G135" t="n">
-        <v>170989200</v>
+        <v>37591800</v>
       </c>
     </row>
     <row r="136">
@@ -3563,22 +3563,22 @@
         <v>44027</v>
       </c>
       <c r="B136" t="n">
-        <v>98.98999786376953</v>
+        <v>209.5599975585938</v>
       </c>
       <c r="C136" t="n">
-        <v>99.24749755859375</v>
+        <v>211.3300018310547</v>
       </c>
       <c r="D136" t="n">
-        <v>96.48999786376953</v>
+        <v>205.0299987792969</v>
       </c>
       <c r="E136" t="n">
-        <v>97.72499847412109</v>
+        <v>208.0399932861328</v>
       </c>
       <c r="F136" t="n">
-        <v>95.43972778320312</v>
+        <v>200.8482971191406</v>
       </c>
       <c r="G136" t="n">
-        <v>153198000</v>
+        <v>32179400</v>
       </c>
     </row>
     <row r="137">
@@ -3586,22 +3586,22 @@
         <v>44028</v>
       </c>
       <c r="B137" t="n">
-        <v>96.5625</v>
+        <v>205.3999938964844</v>
       </c>
       <c r="C137" t="n">
-        <v>97.40499877929688</v>
+        <v>205.6999969482422</v>
       </c>
       <c r="D137" t="n">
-        <v>95.90499877929688</v>
+        <v>202.3099975585938</v>
       </c>
       <c r="E137" t="n">
-        <v>96.52249908447266</v>
+        <v>203.9199981689453</v>
       </c>
       <c r="F137" t="n">
-        <v>94.26533508300781</v>
+        <v>196.8707580566406</v>
       </c>
       <c r="G137" t="n">
-        <v>110577600</v>
+        <v>29940700</v>
       </c>
     </row>
     <row r="138">
@@ -3609,22 +3609,22 @@
         <v>44029</v>
       </c>
       <c r="B138" t="n">
-        <v>96.98750305175781</v>
+        <v>204.4700012207031</v>
       </c>
       <c r="C138" t="n">
-        <v>97.14749908447266</v>
+        <v>205.0399932861328</v>
       </c>
       <c r="D138" t="n">
-        <v>95.83999633789062</v>
+        <v>201.3899993896484</v>
       </c>
       <c r="E138" t="n">
-        <v>96.32749938964844</v>
+        <v>202.8800048828125</v>
       </c>
       <c r="F138" t="n">
-        <v>94.07488250732422</v>
+        <v>195.86669921875</v>
       </c>
       <c r="G138" t="n">
-        <v>92186800</v>
+        <v>31635300</v>
       </c>
     </row>
     <row r="139">
@@ -3632,22 +3632,22 @@
         <v>44032</v>
       </c>
       <c r="B139" t="n">
-        <v>96.41750335693359</v>
+        <v>205</v>
       </c>
       <c r="C139" t="n">
-        <v>98.5</v>
+        <v>212.3000030517578</v>
       </c>
       <c r="D139" t="n">
-        <v>96.0625</v>
+        <v>203.0099945068359</v>
       </c>
       <c r="E139" t="n">
-        <v>98.35749816894531</v>
+        <v>211.6000061035156</v>
       </c>
       <c r="F139" t="n">
-        <v>96.05741882324219</v>
+        <v>204.2852630615234</v>
       </c>
       <c r="G139" t="n">
-        <v>90318000</v>
+        <v>36884800</v>
       </c>
     </row>
     <row r="140">
@@ -3655,22 +3655,22 @@
         <v>44033</v>
       </c>
       <c r="B140" t="n">
-        <v>99.17250061035156</v>
+        <v>213.6600036621094</v>
       </c>
       <c r="C140" t="n">
-        <v>99.25</v>
+        <v>213.9400024414062</v>
       </c>
       <c r="D140" t="n">
-        <v>96.74250030517578</v>
+        <v>208.0299987792969</v>
       </c>
       <c r="E140" t="n">
-        <v>97</v>
+        <v>208.75</v>
       </c>
       <c r="F140" t="n">
-        <v>94.73167419433594</v>
+        <v>201.5337677001953</v>
       </c>
       <c r="G140" t="n">
-        <v>103433200</v>
+        <v>37990400</v>
       </c>
     </row>
     <row r="141">
@@ -3678,22 +3678,22 @@
         <v>44034</v>
       </c>
       <c r="B141" t="n">
-        <v>96.69249725341797</v>
+        <v>209.1999969482422</v>
       </c>
       <c r="C141" t="n">
-        <v>97.97499847412109</v>
+        <v>212.3000030517578</v>
       </c>
       <c r="D141" t="n">
-        <v>96.60250091552734</v>
+        <v>208.3899993896484</v>
       </c>
       <c r="E141" t="n">
-        <v>97.27249908447266</v>
+        <v>211.75</v>
       </c>
       <c r="F141" t="n">
-        <v>94.99779510498047</v>
+        <v>204.4300537109375</v>
       </c>
       <c r="G141" t="n">
-        <v>89001600</v>
+        <v>49605700</v>
       </c>
     </row>
     <row r="142">
@@ -3701,22 +3701,22 @@
         <v>44035</v>
       </c>
       <c r="B142" t="n">
-        <v>96.99749755859375</v>
+        <v>207.1900024414062</v>
       </c>
       <c r="C142" t="n">
-        <v>97.07749938964844</v>
+        <v>210.9199981689453</v>
       </c>
       <c r="D142" t="n">
-        <v>92.01000213623047</v>
+        <v>202.1499938964844</v>
       </c>
       <c r="E142" t="n">
-        <v>92.84500122070312</v>
+        <v>202.5399932861328</v>
       </c>
       <c r="F142" t="n">
-        <v>90.673828125</v>
+        <v>195.5384063720703</v>
       </c>
       <c r="G142" t="n">
-        <v>197004400</v>
+        <v>67457000</v>
       </c>
     </row>
     <row r="143">
@@ -3724,22 +3724,22 @@
         <v>44036</v>
       </c>
       <c r="B143" t="n">
-        <v>90.98750305175781</v>
+        <v>200.4199981689453</v>
       </c>
       <c r="C143" t="n">
-        <v>92.97000122070312</v>
+        <v>202.8600006103516</v>
       </c>
       <c r="D143" t="n">
-        <v>89.14499664306641</v>
+        <v>197.5099945068359</v>
       </c>
       <c r="E143" t="n">
-        <v>92.61499786376953</v>
+        <v>201.3000030517578</v>
       </c>
       <c r="F143" t="n">
-        <v>90.44920349121094</v>
+        <v>194.3413391113281</v>
       </c>
       <c r="G143" t="n">
-        <v>185438800</v>
+        <v>39827000</v>
       </c>
     </row>
     <row r="144">
@@ -3747,22 +3747,22 @@
         <v>44039</v>
       </c>
       <c r="B144" t="n">
-        <v>93.70999908447266</v>
+        <v>201.4700012207031</v>
       </c>
       <c r="C144" t="n">
-        <v>94.90499877929688</v>
+        <v>203.9700012207031</v>
       </c>
       <c r="D144" t="n">
-        <v>93.48000335693359</v>
+        <v>200.8600006103516</v>
       </c>
       <c r="E144" t="n">
-        <v>94.80999755859375</v>
+        <v>203.8500061035156</v>
       </c>
       <c r="F144" t="n">
-        <v>92.59288787841797</v>
+        <v>196.8031158447266</v>
       </c>
       <c r="G144" t="n">
-        <v>121214000</v>
+        <v>30160900</v>
       </c>
     </row>
     <row r="145">
@@ -3770,22 +3770,22 @@
         <v>44040</v>
       </c>
       <c r="B145" t="n">
-        <v>94.36750030517578</v>
+        <v>203.6100006103516</v>
       </c>
       <c r="C145" t="n">
-        <v>94.55000305175781</v>
+        <v>204.6999969482422</v>
       </c>
       <c r="D145" t="n">
-        <v>93.24749755859375</v>
+        <v>201.7400054931641</v>
       </c>
       <c r="E145" t="n">
-        <v>93.25250244140625</v>
+        <v>202.0200042724609</v>
       </c>
       <c r="F145" t="n">
-        <v>91.07179260253906</v>
+        <v>195.0364227294922</v>
       </c>
       <c r="G145" t="n">
-        <v>103625600</v>
+        <v>23251400</v>
       </c>
     </row>
     <row r="146">
@@ -3793,22 +3793,22 @@
         <v>44041</v>
       </c>
       <c r="B146" t="n">
-        <v>93.75</v>
+        <v>202.5</v>
       </c>
       <c r="C146" t="n">
-        <v>95.23000335693359</v>
+        <v>204.6499938964844</v>
       </c>
       <c r="D146" t="n">
-        <v>93.71250152587891</v>
+        <v>202.0099945068359</v>
       </c>
       <c r="E146" t="n">
-        <v>95.04000091552734</v>
+        <v>204.0599975585938</v>
       </c>
       <c r="F146" t="n">
-        <v>92.81751251220703</v>
+        <v>197.0058746337891</v>
       </c>
       <c r="G146" t="n">
-        <v>90329200</v>
+        <v>19632600</v>
       </c>
     </row>
     <row r="147">
@@ -3816,22 +3816,22 @@
         <v>44042</v>
       </c>
       <c r="B147" t="n">
-        <v>94.1875</v>
+        <v>201</v>
       </c>
       <c r="C147" t="n">
-        <v>96.29750061035156</v>
+        <v>204.4600067138672</v>
       </c>
       <c r="D147" t="n">
-        <v>93.76750183105469</v>
+        <v>199.5700073242188</v>
       </c>
       <c r="E147" t="n">
-        <v>96.19000244140625</v>
+        <v>203.8999938964844</v>
       </c>
       <c r="F147" t="n">
-        <v>93.94061279296875</v>
+        <v>196.8514251708984</v>
       </c>
       <c r="G147" t="n">
-        <v>158130000</v>
+        <v>25079600</v>
       </c>
     </row>
     <row r="148">
@@ -3839,22 +3839,22 @@
         <v>44043</v>
       </c>
       <c r="B148" t="n">
-        <v>102.8850021362305</v>
+        <v>204.3999938964844</v>
       </c>
       <c r="C148" t="n">
-        <v>106.4150009155273</v>
+        <v>205.1000061035156</v>
       </c>
       <c r="D148" t="n">
-        <v>100.8249969482422</v>
+        <v>199.0099945068359</v>
       </c>
       <c r="E148" t="n">
-        <v>106.2600021362305</v>
+        <v>205.0099945068359</v>
       </c>
       <c r="F148" t="n">
-        <v>103.7751388549805</v>
+        <v>197.9230499267578</v>
       </c>
       <c r="G148" t="n">
-        <v>374336800</v>
+        <v>51044000</v>
       </c>
     </row>
     <row r="149">
@@ -3862,22 +3862,22 @@
         <v>44046</v>
       </c>
       <c r="B149" t="n">
-        <v>108.1999969482422</v>
+        <v>211.5200042724609</v>
       </c>
       <c r="C149" t="n">
-        <v>111.6374969482422</v>
+        <v>217.6399993896484</v>
       </c>
       <c r="D149" t="n">
-        <v>107.8925018310547</v>
+        <v>210.4400024414062</v>
       </c>
       <c r="E149" t="n">
-        <v>108.9375</v>
+        <v>216.5399932861328</v>
       </c>
       <c r="F149" t="n">
-        <v>106.3899993896484</v>
+        <v>209.0544891357422</v>
       </c>
       <c r="G149" t="n">
-        <v>308151200</v>
+        <v>78983000</v>
       </c>
     </row>
     <row r="150">
@@ -3885,22 +3885,22 @@
         <v>44047</v>
       </c>
       <c r="B150" t="n">
-        <v>109.1324996948242</v>
+        <v>214.1699981689453</v>
       </c>
       <c r="C150" t="n">
-        <v>110.7900009155273</v>
+        <v>214.7700042724609</v>
       </c>
       <c r="D150" t="n">
-        <v>108.3874969482422</v>
+        <v>210.3099975585938</v>
       </c>
       <c r="E150" t="n">
-        <v>109.6650009155273</v>
+        <v>213.2899932861328</v>
       </c>
       <c r="F150" t="n">
-        <v>107.1005172729492</v>
+        <v>205.9167938232422</v>
       </c>
       <c r="G150" t="n">
-        <v>173071600</v>
+        <v>49280100</v>
       </c>
     </row>
     <row r="151">
@@ -3908,22 +3908,22 @@
         <v>44048</v>
       </c>
       <c r="B151" t="n">
-        <v>109.3775024414062</v>
+        <v>214.8999938964844</v>
       </c>
       <c r="C151" t="n">
-        <v>110.3925018310547</v>
+        <v>215</v>
       </c>
       <c r="D151" t="n">
-        <v>108.8974990844727</v>
+        <v>211.5700073242188</v>
       </c>
       <c r="E151" t="n">
-        <v>110.0625</v>
+        <v>212.9400024414062</v>
       </c>
       <c r="F151" t="n">
-        <v>107.4887084960938</v>
+        <v>205.5789337158203</v>
       </c>
       <c r="G151" t="n">
-        <v>121776800</v>
+        <v>28806400</v>
       </c>
     </row>
     <row r="152">
@@ -3931,22 +3931,22 @@
         <v>44049</v>
       </c>
       <c r="B152" t="n">
-        <v>110.4049987792969</v>
+        <v>212.3399963378906</v>
       </c>
       <c r="C152" t="n">
-        <v>114.4124984741211</v>
+        <v>216.3699951171875</v>
       </c>
       <c r="D152" t="n">
-        <v>109.7975006103516</v>
+        <v>211.5500030517578</v>
       </c>
       <c r="E152" t="n">
-        <v>113.9024963378906</v>
+        <v>216.3500061035156</v>
       </c>
       <c r="F152" t="n">
-        <v>111.238899230957</v>
+        <v>208.8710479736328</v>
       </c>
       <c r="G152" t="n">
-        <v>202428800</v>
+        <v>32656800</v>
       </c>
     </row>
     <row r="153">
@@ -3954,22 +3954,22 @@
         <v>44050</v>
       </c>
       <c r="B153" t="n">
-        <v>113.2050018310547</v>
+        <v>214.8500061035156</v>
       </c>
       <c r="C153" t="n">
-        <v>113.6750030517578</v>
+        <v>215.6999969482422</v>
       </c>
       <c r="D153" t="n">
-        <v>110.2925033569336</v>
+        <v>210.9299926757812</v>
       </c>
       <c r="E153" t="n">
-        <v>111.1125030517578</v>
+        <v>212.4799957275391</v>
       </c>
       <c r="F153" t="n">
-        <v>108.7098007202148</v>
+        <v>205.1348266601562</v>
       </c>
       <c r="G153" t="n">
-        <v>198045600</v>
+        <v>27820400</v>
       </c>
     </row>
     <row r="154">
@@ -3977,22 +3977,22 @@
         <v>44053</v>
       </c>
       <c r="B154" t="n">
-        <v>112.5999984741211</v>
+        <v>211.6699981689453</v>
       </c>
       <c r="C154" t="n">
-        <v>113.7750015258789</v>
+        <v>211.8800048828125</v>
       </c>
       <c r="D154" t="n">
-        <v>110</v>
+        <v>206.3500061035156</v>
       </c>
       <c r="E154" t="n">
-        <v>112.7275009155273</v>
+        <v>208.25</v>
       </c>
       <c r="F154" t="n">
-        <v>110.2898712158203</v>
+        <v>201.0510406494141</v>
       </c>
       <c r="G154" t="n">
-        <v>212403600</v>
+        <v>36716500</v>
       </c>
     </row>
     <row r="155">
@@ -4000,22 +4000,22 @@
         <v>44054</v>
       </c>
       <c r="B155" t="n">
-        <v>111.9700012207031</v>
+        <v>207.1600036621094</v>
       </c>
       <c r="C155" t="n">
-        <v>112.4824981689453</v>
+        <v>207.6499938964844</v>
       </c>
       <c r="D155" t="n">
-        <v>109.1074981689453</v>
+        <v>203.1399993896484</v>
       </c>
       <c r="E155" t="n">
-        <v>109.375</v>
+        <v>203.3800048828125</v>
       </c>
       <c r="F155" t="n">
-        <v>107.0098724365234</v>
+        <v>196.3493804931641</v>
       </c>
       <c r="G155" t="n">
-        <v>187902400</v>
+        <v>36446500</v>
       </c>
     </row>
     <row r="156">
@@ -4023,22 +4023,22 @@
         <v>44055</v>
       </c>
       <c r="B156" t="n">
-        <v>110.4974975585938</v>
+        <v>205.2899932861328</v>
       </c>
       <c r="C156" t="n">
-        <v>113.2750015258789</v>
+        <v>210.2799987792969</v>
       </c>
       <c r="D156" t="n">
-        <v>110.2975006103516</v>
+        <v>204.75</v>
       </c>
       <c r="E156" t="n">
-        <v>113.0100021362305</v>
+        <v>209.1900024414062</v>
       </c>
       <c r="F156" t="n">
-        <v>110.5662612915039</v>
+        <v>201.9585876464844</v>
       </c>
       <c r="G156" t="n">
-        <v>165598000</v>
+        <v>28013100</v>
       </c>
     </row>
     <row r="157">
@@ -4046,22 +4046,22 @@
         <v>44056</v>
       </c>
       <c r="B157" t="n">
-        <v>114.4300003051758</v>
+        <v>209.4400024414062</v>
       </c>
       <c r="C157" t="n">
-        <v>116.0425033569336</v>
+        <v>211.3500061035156</v>
       </c>
       <c r="D157" t="n">
-        <v>113.9274978637695</v>
+        <v>208.1499938964844</v>
       </c>
       <c r="E157" t="n">
-        <v>115.0100021362305</v>
+        <v>208.6999969482422</v>
       </c>
       <c r="F157" t="n">
-        <v>112.5230178833008</v>
+        <v>201.4854888916016</v>
       </c>
       <c r="G157" t="n">
-        <v>210082000</v>
+        <v>22588900</v>
       </c>
     </row>
     <row r="158">
@@ -4069,22 +4069,22 @@
         <v>44057</v>
       </c>
       <c r="B158" t="n">
-        <v>114.8300018310547</v>
+        <v>208.7599945068359</v>
       </c>
       <c r="C158" t="n">
-        <v>115</v>
+        <v>209.5899963378906</v>
       </c>
       <c r="D158" t="n">
-        <v>113.0449981689453</v>
+        <v>207.5099945068359</v>
       </c>
       <c r="E158" t="n">
-        <v>114.9075012207031</v>
+        <v>208.8999938964844</v>
       </c>
       <c r="F158" t="n">
-        <v>112.4227447509766</v>
+        <v>201.6786041259766</v>
       </c>
       <c r="G158" t="n">
-        <v>165565200</v>
+        <v>17958900</v>
       </c>
     </row>
     <row r="159">
@@ -4092,22 +4092,22 @@
         <v>44060</v>
       </c>
       <c r="B159" t="n">
-        <v>116.0625</v>
+        <v>209.6000061035156</v>
       </c>
       <c r="C159" t="n">
-        <v>116.0875015258789</v>
+        <v>211.1900024414062</v>
       </c>
       <c r="D159" t="n">
-        <v>113.9625015258789</v>
+        <v>208.9199981689453</v>
       </c>
       <c r="E159" t="n">
-        <v>114.6074981689453</v>
+        <v>210.2799987792969</v>
       </c>
       <c r="F159" t="n">
-        <v>112.1292266845703</v>
+        <v>203.0108642578125</v>
       </c>
       <c r="G159" t="n">
-        <v>119561600</v>
+        <v>20184800</v>
       </c>
     </row>
     <row r="160">
@@ -4115,22 +4115,22 @@
         <v>44061</v>
       </c>
       <c r="B160" t="n">
-        <v>114.3525009155273</v>
+        <v>210.5299987792969</v>
       </c>
       <c r="C160" t="n">
-        <v>116</v>
+        <v>212.3600006103516</v>
       </c>
       <c r="D160" t="n">
-        <v>114.0074996948242</v>
+        <v>209.2100067138672</v>
       </c>
       <c r="E160" t="n">
-        <v>115.5625</v>
+        <v>211.4900054931641</v>
       </c>
       <c r="F160" t="n">
-        <v>113.0635757446289</v>
+        <v>204.1790161132812</v>
       </c>
       <c r="G160" t="n">
-        <v>105633600</v>
+        <v>21336200</v>
       </c>
     </row>
     <row r="161">
@@ -4138,22 +4138,22 @@
         <v>44062</v>
       </c>
       <c r="B161" t="n">
-        <v>115.9824981689453</v>
+        <v>211.4900054931641</v>
       </c>
       <c r="C161" t="n">
-        <v>117.1624984741211</v>
+        <v>212.1000061035156</v>
       </c>
       <c r="D161" t="n">
-        <v>115.6100006103516</v>
+        <v>209.25</v>
       </c>
       <c r="E161" t="n">
-        <v>115.7074966430664</v>
+        <v>209.6999969482422</v>
       </c>
       <c r="F161" t="n">
-        <v>113.205451965332</v>
+        <v>202.9403228759766</v>
       </c>
       <c r="G161" t="n">
-        <v>145538000</v>
+        <v>27627600</v>
       </c>
     </row>
     <row r="162">
@@ -4161,22 +4161,22 @@
         <v>44063</v>
       </c>
       <c r="B162" t="n">
-        <v>115.75</v>
+        <v>209.5399932861328</v>
       </c>
       <c r="C162" t="n">
-        <v>118.3925018310547</v>
+        <v>215</v>
       </c>
       <c r="D162" t="n">
-        <v>115.7324981689453</v>
+        <v>208.9100036621094</v>
       </c>
       <c r="E162" t="n">
-        <v>118.2750015258789</v>
+        <v>214.5800018310547</v>
       </c>
       <c r="F162" t="n">
-        <v>115.7174224853516</v>
+        <v>207.6629943847656</v>
       </c>
       <c r="G162" t="n">
-        <v>126907200</v>
+        <v>26981500</v>
       </c>
     </row>
     <row r="163">
@@ -4184,22 +4184,22 @@
         <v>44064</v>
       </c>
       <c r="B163" t="n">
-        <v>119.2624969482422</v>
+        <v>213.8600006103516</v>
       </c>
       <c r="C163" t="n">
-        <v>124.8675003051758</v>
+        <v>216.25</v>
       </c>
       <c r="D163" t="n">
-        <v>119.25</v>
+        <v>212.8500061035156</v>
       </c>
       <c r="E163" t="n">
-        <v>124.370002746582</v>
+        <v>213.0200042724609</v>
       </c>
       <c r="F163" t="n">
-        <v>121.6806182861328</v>
+        <v>206.1533203125</v>
       </c>
       <c r="G163" t="n">
-        <v>338054800</v>
+        <v>36249300</v>
       </c>
     </row>
     <row r="164">
@@ -4207,22 +4207,22 @@
         <v>44067</v>
       </c>
       <c r="B164" t="n">
-        <v>128.6974945068359</v>
+        <v>214.7899932861328</v>
       </c>
       <c r="C164" t="n">
-        <v>128.7850036621094</v>
+        <v>215.5200042724609</v>
       </c>
       <c r="D164" t="n">
-        <v>123.9375</v>
+        <v>212.4299926757812</v>
       </c>
       <c r="E164" t="n">
-        <v>125.8574981689453</v>
+        <v>213.6900024414062</v>
       </c>
       <c r="F164" t="n">
-        <v>123.1359558105469</v>
+        <v>206.8016967773438</v>
       </c>
       <c r="G164" t="n">
-        <v>345937600</v>
+        <v>25460100</v>
       </c>
     </row>
     <row r="165">
@@ -4230,22 +4230,22 @@
         <v>44068</v>
       </c>
       <c r="B165" t="n">
-        <v>124.6975021362305</v>
+        <v>213.1000061035156</v>
       </c>
       <c r="C165" t="n">
-        <v>125.1800003051758</v>
+        <v>216.6100006103516</v>
       </c>
       <c r="D165" t="n">
-        <v>123.0524978637695</v>
+        <v>213.1000061035156</v>
       </c>
       <c r="E165" t="n">
-        <v>124.8249969482422</v>
+        <v>216.4700012207031</v>
       </c>
       <c r="F165" t="n">
-        <v>122.1257934570312</v>
+        <v>209.4920806884766</v>
       </c>
       <c r="G165" t="n">
-        <v>211495600</v>
+        <v>23043700</v>
       </c>
     </row>
     <row r="166">
@@ -4253,22 +4253,22 @@
         <v>44069</v>
       </c>
       <c r="B166" t="n">
-        <v>126.1800003051758</v>
+        <v>217.8800048828125</v>
       </c>
       <c r="C166" t="n">
-        <v>126.9925003051758</v>
+        <v>222.0899963378906</v>
       </c>
       <c r="D166" t="n">
-        <v>125.0824966430664</v>
+        <v>217.3600006103516</v>
       </c>
       <c r="E166" t="n">
-        <v>126.5224990844727</v>
+        <v>221.1499938964844</v>
       </c>
       <c r="F166" t="n">
-        <v>123.7865600585938</v>
+        <v>214.0212249755859</v>
       </c>
       <c r="G166" t="n">
-        <v>163022400</v>
+        <v>39600800</v>
       </c>
     </row>
     <row r="167">
@@ -4276,22 +4276,22 @@
         <v>44070</v>
       </c>
       <c r="B167" t="n">
-        <v>127.1425018310547</v>
+        <v>222.8899993896484</v>
       </c>
       <c r="C167" t="n">
-        <v>127.4850006103516</v>
+        <v>231.1499938964844</v>
       </c>
       <c r="D167" t="n">
-        <v>123.8324966430664</v>
+        <v>219.3999938964844</v>
       </c>
       <c r="E167" t="n">
-        <v>125.0100021362305</v>
+        <v>226.5800018310547</v>
       </c>
       <c r="F167" t="n">
-        <v>122.3067855834961</v>
+        <v>219.2761840820312</v>
       </c>
       <c r="G167" t="n">
-        <v>155552400</v>
+        <v>57602200</v>
       </c>
     </row>
     <row r="168">
@@ -4299,22 +4299,22 @@
         <v>44071</v>
       </c>
       <c r="B168" t="n">
-        <v>126.0124969482422</v>
+        <v>228.1799926757812</v>
       </c>
       <c r="C168" t="n">
-        <v>126.442497253418</v>
+        <v>230.6399993896484</v>
       </c>
       <c r="D168" t="n">
-        <v>124.5774993896484</v>
+        <v>226.5800018310547</v>
       </c>
       <c r="E168" t="n">
-        <v>124.807502746582</v>
+        <v>228.9100036621094</v>
       </c>
       <c r="F168" t="n">
-        <v>122.1086578369141</v>
+        <v>221.5310821533203</v>
       </c>
       <c r="G168" t="n">
-        <v>187630000</v>
+        <v>26292900</v>
       </c>
     </row>
     <row r="169">
@@ -4322,22 +4322,22 @@
         <v>44074</v>
       </c>
       <c r="B169" t="n">
-        <v>127.5800018310547</v>
+        <v>227</v>
       </c>
       <c r="C169" t="n">
-        <v>131</v>
+        <v>228.6999969482422</v>
       </c>
       <c r="D169" t="n">
-        <v>126</v>
+        <v>224.3099975585938</v>
       </c>
       <c r="E169" t="n">
-        <v>129.0399932861328</v>
+        <v>225.5299987792969</v>
       </c>
       <c r="F169" t="n">
-        <v>126.2496337890625</v>
+        <v>218.2600402832031</v>
       </c>
       <c r="G169" t="n">
-        <v>225702700</v>
+        <v>28774200</v>
       </c>
     </row>
     <row r="170">
@@ -4345,22 +4345,22 @@
         <v>44075</v>
       </c>
       <c r="B170" t="n">
-        <v>132.7599945068359</v>
+        <v>225.5099945068359</v>
       </c>
       <c r="C170" t="n">
-        <v>134.8000030517578</v>
+        <v>227.4499969482422</v>
       </c>
       <c r="D170" t="n">
-        <v>130.5299987792969</v>
+        <v>224.4299926757812</v>
       </c>
       <c r="E170" t="n">
-        <v>134.1799926757812</v>
+        <v>227.2700042724609</v>
       </c>
       <c r="F170" t="n">
-        <v>131.2784729003906</v>
+        <v>219.9439544677734</v>
       </c>
       <c r="G170" t="n">
-        <v>151948100</v>
+        <v>25725500</v>
       </c>
     </row>
     <row r="171">
@@ -4368,22 +4368,22 @@
         <v>44076</v>
       </c>
       <c r="B171" t="n">
-        <v>137.5899963378906</v>
+        <v>227.9700012207031</v>
       </c>
       <c r="C171" t="n">
-        <v>137.9799957275391</v>
+        <v>232.8600006103516</v>
       </c>
       <c r="D171" t="n">
-        <v>127</v>
+        <v>227.3500061035156</v>
       </c>
       <c r="E171" t="n">
-        <v>131.3999938964844</v>
+        <v>231.6499938964844</v>
       </c>
       <c r="F171" t="n">
-        <v>128.5585784912109</v>
+        <v>224.1827392578125</v>
       </c>
       <c r="G171" t="n">
-        <v>200119000</v>
+        <v>34080800</v>
       </c>
     </row>
     <row r="172">
@@ -4391,22 +4391,22 @@
         <v>44077</v>
       </c>
       <c r="B172" t="n">
-        <v>126.9100036621094</v>
+        <v>229.2700042724609</v>
       </c>
       <c r="C172" t="n">
-        <v>128.8399963378906</v>
+        <v>229.3099975585938</v>
       </c>
       <c r="D172" t="n">
-        <v>120.5</v>
+        <v>214.9600067138672</v>
       </c>
       <c r="E172" t="n">
-        <v>120.879997253418</v>
+        <v>217.3000030517578</v>
       </c>
       <c r="F172" t="n">
-        <v>118.2660827636719</v>
+        <v>210.2953338623047</v>
       </c>
       <c r="G172" t="n">
-        <v>257599600</v>
+        <v>58400300</v>
       </c>
     </row>
     <row r="173">
@@ -4414,22 +4414,22 @@
         <v>44078</v>
       </c>
       <c r="B173" t="n">
-        <v>120.0699996948242</v>
+        <v>215.1000061035156</v>
       </c>
       <c r="C173" t="n">
-        <v>123.6999969482422</v>
+        <v>218.3600006103516</v>
       </c>
       <c r="D173" t="n">
-        <v>110.8899993896484</v>
+        <v>205.1900024414062</v>
       </c>
       <c r="E173" t="n">
-        <v>120.9599990844727</v>
+        <v>214.25</v>
       </c>
       <c r="F173" t="n">
-        <v>118.3443450927734</v>
+        <v>207.3436584472656</v>
       </c>
       <c r="G173" t="n">
-        <v>332607200</v>
+        <v>59664100</v>
       </c>
     </row>
     <row r="174">
@@ -4437,22 +4437,22 @@
         <v>44082</v>
       </c>
       <c r="B174" t="n">
-        <v>113.9499969482422</v>
+        <v>206.5</v>
       </c>
       <c r="C174" t="n">
-        <v>118.9899978637695</v>
+        <v>210.0299987792969</v>
       </c>
       <c r="D174" t="n">
-        <v>112.6800003051758</v>
+        <v>202.1999969482422</v>
       </c>
       <c r="E174" t="n">
-        <v>112.8199996948242</v>
+        <v>202.6600036621094</v>
       </c>
       <c r="F174" t="n">
-        <v>110.3803863525391</v>
+        <v>196.1272583007812</v>
       </c>
       <c r="G174" t="n">
-        <v>231366600</v>
+        <v>52924300</v>
       </c>
     </row>
     <row r="175">
@@ -4460,22 +4460,22 @@
         <v>44083</v>
       </c>
       <c r="B175" t="n">
-        <v>117.2600021362305</v>
+        <v>207.6000061035156</v>
       </c>
       <c r="C175" t="n">
-        <v>119.1399993896484</v>
+        <v>214.8399963378906</v>
       </c>
       <c r="D175" t="n">
-        <v>115.2600021362305</v>
+        <v>206.6999969482422</v>
       </c>
       <c r="E175" t="n">
-        <v>117.3199996948242</v>
+        <v>211.2899932861328</v>
       </c>
       <c r="F175" t="n">
-        <v>114.7830810546875</v>
+        <v>204.4790344238281</v>
       </c>
       <c r="G175" t="n">
-        <v>176940500</v>
+        <v>45679000</v>
       </c>
     </row>
     <row r="176">
@@ -4483,22 +4483,22 @@
         <v>44084</v>
       </c>
       <c r="B176" t="n">
-        <v>120.3600006103516</v>
+        <v>213.3999938964844</v>
       </c>
       <c r="C176" t="n">
-        <v>120.5</v>
+        <v>214.7400054931641</v>
       </c>
       <c r="D176" t="n">
-        <v>112.5</v>
+        <v>204.1100006103516</v>
       </c>
       <c r="E176" t="n">
-        <v>113.4899978637695</v>
+        <v>205.3699951171875</v>
       </c>
       <c r="F176" t="n">
-        <v>111.035888671875</v>
+        <v>198.7498779296875</v>
       </c>
       <c r="G176" t="n">
-        <v>182274400</v>
+        <v>35461500</v>
       </c>
     </row>
     <row r="177">
@@ -4506,22 +4506,22 @@
         <v>44085</v>
       </c>
       <c r="B177" t="n">
-        <v>114.5699996948242</v>
+        <v>207.1999969482422</v>
       </c>
       <c r="C177" t="n">
-        <v>115.2300033569336</v>
+        <v>208.6300048828125</v>
       </c>
       <c r="D177" t="n">
-        <v>110</v>
+        <v>201.2400054931641</v>
       </c>
       <c r="E177" t="n">
-        <v>112</v>
+        <v>204.0299987792969</v>
       </c>
       <c r="F177" t="n">
-        <v>109.5781173706055</v>
+        <v>197.4530792236328</v>
       </c>
       <c r="G177" t="n">
-        <v>180860300</v>
+        <v>33620100</v>
       </c>
     </row>
     <row r="178">
@@ -4529,22 +4529,22 @@
         <v>44088</v>
       </c>
       <c r="B178" t="n">
-        <v>114.7200012207031</v>
+        <v>204.2400054931641</v>
       </c>
       <c r="C178" t="n">
-        <v>115.9300003051758</v>
+        <v>209.1999969482422</v>
       </c>
       <c r="D178" t="n">
-        <v>112.8000030517578</v>
+        <v>204.0299987792969</v>
       </c>
       <c r="E178" t="n">
-        <v>115.3600006103516</v>
+        <v>205.4100036621094</v>
       </c>
       <c r="F178" t="n">
-        <v>112.8654556274414</v>
+        <v>198.7886047363281</v>
       </c>
       <c r="G178" t="n">
-        <v>140150100</v>
+        <v>30375800</v>
       </c>
     </row>
     <row r="179">
@@ -4552,22 +4552,22 @@
         <v>44089</v>
       </c>
       <c r="B179" t="n">
-        <v>118.3300018310547</v>
+        <v>208.4199981689453</v>
       </c>
       <c r="C179" t="n">
-        <v>118.8300018310547</v>
+        <v>209.7799987792969</v>
       </c>
       <c r="D179" t="n">
-        <v>113.6100006103516</v>
+        <v>206.9299926757812</v>
       </c>
       <c r="E179" t="n">
-        <v>115.5400009155273</v>
+        <v>208.7799987792969</v>
       </c>
       <c r="F179" t="n">
-        <v>113.0415649414062</v>
+        <v>202.0499572753906</v>
       </c>
       <c r="G179" t="n">
-        <v>184642000</v>
+        <v>21823900</v>
       </c>
     </row>
     <row r="180">
@@ -4575,22 +4575,22 @@
         <v>44090</v>
       </c>
       <c r="B180" t="n">
-        <v>115.2300033569336</v>
+        <v>210.6199951171875</v>
       </c>
       <c r="C180" t="n">
-        <v>116</v>
+        <v>210.6499938964844</v>
       </c>
       <c r="D180" t="n">
-        <v>112.0400009155273</v>
+        <v>204.6399993896484</v>
       </c>
       <c r="E180" t="n">
-        <v>112.129997253418</v>
+        <v>205.0500030517578</v>
       </c>
       <c r="F180" t="n">
-        <v>109.7053070068359</v>
+        <v>198.4402160644531</v>
       </c>
       <c r="G180" t="n">
-        <v>154679000</v>
+        <v>26328100</v>
       </c>
     </row>
     <row r="181">
@@ -4598,22 +4598,22 @@
         <v>44091</v>
       </c>
       <c r="B181" t="n">
-        <v>109.7200012207031</v>
+        <v>200.0500030517578</v>
       </c>
       <c r="C181" t="n">
-        <v>112.1999969482422</v>
+        <v>204.3300018310547</v>
       </c>
       <c r="D181" t="n">
-        <v>108.7099990844727</v>
+        <v>199.9600067138672</v>
       </c>
       <c r="E181" t="n">
-        <v>110.3399963378906</v>
+        <v>202.9100036621094</v>
       </c>
       <c r="F181" t="n">
-        <v>107.9539947509766</v>
+        <v>196.3691864013672</v>
       </c>
       <c r="G181" t="n">
-        <v>178011000</v>
+        <v>34011300</v>
       </c>
     </row>
     <row r="182">
@@ -4621,22 +4621,22 @@
         <v>44092</v>
       </c>
       <c r="B182" t="n">
-        <v>110.4000015258789</v>
+        <v>202.8000030517578</v>
       </c>
       <c r="C182" t="n">
-        <v>110.879997253418</v>
+        <v>203.6499938964844</v>
       </c>
       <c r="D182" t="n">
-        <v>106.0899963378906</v>
+        <v>196.25</v>
       </c>
       <c r="E182" t="n">
-        <v>106.8399963378906</v>
+        <v>200.3899993896484</v>
       </c>
       <c r="F182" t="n">
-        <v>104.5297088623047</v>
+        <v>193.9303894042969</v>
       </c>
       <c r="G182" t="n">
-        <v>287104900</v>
+        <v>55225300</v>
       </c>
     </row>
     <row r="183">
@@ -4644,22 +4644,22 @@
         <v>44095</v>
       </c>
       <c r="B183" t="n">
-        <v>104.5400009155273</v>
+        <v>197.1900024414062</v>
       </c>
       <c r="C183" t="n">
-        <v>110.1900024414062</v>
+        <v>202.7100067138672</v>
       </c>
       <c r="D183" t="n">
-        <v>103.0999984741211</v>
+        <v>196.3800048828125</v>
       </c>
       <c r="E183" t="n">
-        <v>110.0800018310547</v>
+        <v>202.5399932861328</v>
       </c>
       <c r="F183" t="n">
-        <v>107.6996231079102</v>
+        <v>196.0111083984375</v>
       </c>
       <c r="G183" t="n">
-        <v>195713800</v>
+        <v>39839700</v>
       </c>
     </row>
     <row r="184">
@@ -4667,22 +4667,22 @@
         <v>44096</v>
       </c>
       <c r="B184" t="n">
-        <v>112.6800003051758</v>
+        <v>205.0599975585938</v>
       </c>
       <c r="C184" t="n">
-        <v>112.8600006103516</v>
+        <v>208.1000061035156</v>
       </c>
       <c r="D184" t="n">
-        <v>109.1600036621094</v>
+        <v>202.0800018310547</v>
       </c>
       <c r="E184" t="n">
-        <v>111.8099975585938</v>
+        <v>207.4199981689453</v>
       </c>
       <c r="F184" t="n">
-        <v>109.3922119140625</v>
+        <v>200.7338256835938</v>
       </c>
       <c r="G184" t="n">
-        <v>183055400</v>
+        <v>33517100</v>
       </c>
     </row>
     <row r="185">
@@ -4690,22 +4690,22 @@
         <v>44097</v>
       </c>
       <c r="B185" t="n">
-        <v>111.620002746582</v>
+        <v>207.8999938964844</v>
       </c>
       <c r="C185" t="n">
-        <v>112.1100006103516</v>
+        <v>208.1000061035156</v>
       </c>
       <c r="D185" t="n">
-        <v>106.7699966430664</v>
+        <v>200.0299987792969</v>
       </c>
       <c r="E185" t="n">
-        <v>107.120002746582</v>
+        <v>200.5899963378906</v>
       </c>
       <c r="F185" t="n">
-        <v>104.8036346435547</v>
+        <v>194.1239776611328</v>
       </c>
       <c r="G185" t="n">
-        <v>150718700</v>
+        <v>30803800</v>
       </c>
     </row>
     <row r="186">
@@ -4713,22 +4713,22 @@
         <v>44098</v>
       </c>
       <c r="B186" t="n">
-        <v>105.1699981689453</v>
+        <v>199.8500061035156</v>
       </c>
       <c r="C186" t="n">
-        <v>110.25</v>
+        <v>205.5700073242188</v>
       </c>
       <c r="D186" t="n">
-        <v>105</v>
+        <v>199.1999969482422</v>
       </c>
       <c r="E186" t="n">
-        <v>108.2200012207031</v>
+        <v>203.1900024414062</v>
       </c>
       <c r="F186" t="n">
-        <v>105.8798522949219</v>
+        <v>196.6401519775391</v>
       </c>
       <c r="G186" t="n">
-        <v>167743300</v>
+        <v>31202500</v>
       </c>
     </row>
     <row r="187">
@@ -4736,22 +4736,22 @@
         <v>44099</v>
       </c>
       <c r="B187" t="n">
-        <v>108.4300003051758</v>
+        <v>203.5500030517578</v>
       </c>
       <c r="C187" t="n">
-        <v>112.4400024414062</v>
+        <v>209.0399932861328</v>
       </c>
       <c r="D187" t="n">
-        <v>107.6699981689453</v>
+        <v>202.5399932861328</v>
       </c>
       <c r="E187" t="n">
-        <v>112.2799987792969</v>
+        <v>207.8200073242188</v>
       </c>
       <c r="F187" t="n">
-        <v>109.8520584106445</v>
+        <v>201.1209411621094</v>
       </c>
       <c r="G187" t="n">
-        <v>149981400</v>
+        <v>29437300</v>
       </c>
     </row>
     <row r="188">
@@ -4759,22 +4759,22 @@
         <v>44102</v>
       </c>
       <c r="B188" t="n">
-        <v>115.0100021362305</v>
+        <v>210.8800048828125</v>
       </c>
       <c r="C188" t="n">
-        <v>115.3199996948242</v>
+        <v>212.5700073242188</v>
       </c>
       <c r="D188" t="n">
-        <v>112.7799987792969</v>
+        <v>208.0599975585938</v>
       </c>
       <c r="E188" t="n">
-        <v>114.9599990844727</v>
+        <v>209.4400024414062</v>
       </c>
       <c r="F188" t="n">
-        <v>112.4740982055664</v>
+        <v>202.6887054443359</v>
       </c>
       <c r="G188" t="n">
-        <v>137672400</v>
+        <v>32004900</v>
       </c>
     </row>
     <row r="189">
@@ -4782,22 +4782,22 @@
         <v>44103</v>
       </c>
       <c r="B189" t="n">
-        <v>114.5500030517578</v>
+        <v>209.3500061035156</v>
       </c>
       <c r="C189" t="n">
-        <v>115.3099975585938</v>
+        <v>210.0700073242188</v>
       </c>
       <c r="D189" t="n">
-        <v>113.5699996948242</v>
+        <v>206.8099975585938</v>
       </c>
       <c r="E189" t="n">
-        <v>114.0899963378906</v>
+        <v>207.2599945068359</v>
       </c>
       <c r="F189" t="n">
-        <v>111.6229248046875</v>
+        <v>200.5789794921875</v>
       </c>
       <c r="G189" t="n">
-        <v>99382200</v>
+        <v>24221900</v>
       </c>
     </row>
     <row r="190">
@@ -4805,22 +4805,22 @@
         <v>44104</v>
       </c>
       <c r="B190" t="n">
-        <v>113.7900009155273</v>
+        <v>207.7299957275391</v>
       </c>
       <c r="C190" t="n">
-        <v>117.2600021362305</v>
+        <v>211.9799957275391</v>
       </c>
       <c r="D190" t="n">
-        <v>113.620002746582</v>
+        <v>206.5399932861328</v>
       </c>
       <c r="E190" t="n">
-        <v>115.8099975585938</v>
+        <v>210.3300018310547</v>
       </c>
       <c r="F190" t="n">
-        <v>113.3057250976562</v>
+        <v>203.5499725341797</v>
       </c>
       <c r="G190" t="n">
-        <v>142675200</v>
+        <v>33829100</v>
       </c>
     </row>
     <row r="191">
@@ -4828,22 +4828,22 @@
         <v>44105</v>
       </c>
       <c r="B191" t="n">
-        <v>117.6399993896484</v>
+        <v>213.4900054931641</v>
       </c>
       <c r="C191" t="n">
-        <v>117.7200012207031</v>
+        <v>213.9900054931641</v>
       </c>
       <c r="D191" t="n">
-        <v>115.8300018310547</v>
+        <v>211.3200073242188</v>
       </c>
       <c r="E191" t="n">
-        <v>116.7900009155273</v>
+        <v>212.4600067138672</v>
       </c>
       <c r="F191" t="n">
-        <v>114.2645263671875</v>
+        <v>205.6113891601562</v>
       </c>
       <c r="G191" t="n">
-        <v>116120400</v>
+        <v>27158400</v>
       </c>
     </row>
     <row r="192">
@@ -4851,22 +4851,22 @@
         <v>44106</v>
       </c>
       <c r="B192" t="n">
-        <v>112.8899993896484</v>
+        <v>208</v>
       </c>
       <c r="C192" t="n">
-        <v>115.370002746582</v>
+        <v>210.9900054931641</v>
       </c>
       <c r="D192" t="n">
-        <v>112.2200012207031</v>
+        <v>205.5399932861328</v>
       </c>
       <c r="E192" t="n">
-        <v>113.0199966430664</v>
+        <v>206.1900024414062</v>
       </c>
       <c r="F192" t="n">
-        <v>110.576057434082</v>
+        <v>199.54345703125</v>
       </c>
       <c r="G192" t="n">
-        <v>144712000</v>
+        <v>33154800</v>
       </c>
     </row>
     <row r="193">
@@ -4874,22 +4874,22 @@
         <v>44109</v>
       </c>
       <c r="B193" t="n">
-        <v>113.9100036621094</v>
+        <v>207.2200012207031</v>
       </c>
       <c r="C193" t="n">
-        <v>116.6500015258789</v>
+        <v>210.4100036621094</v>
       </c>
       <c r="D193" t="n">
-        <v>113.5500030517578</v>
+        <v>206.9799957275391</v>
       </c>
       <c r="E193" t="n">
-        <v>116.5</v>
+        <v>210.3800048828125</v>
       </c>
       <c r="F193" t="n">
-        <v>113.9808197021484</v>
+        <v>203.5984191894531</v>
       </c>
       <c r="G193" t="n">
-        <v>106243800</v>
+        <v>21331600</v>
       </c>
     </row>
     <row r="194">
@@ -4897,22 +4897,22 @@
         <v>44110</v>
       </c>
       <c r="B194" t="n">
-        <v>115.6999969482422</v>
+        <v>208.8200073242188</v>
       </c>
       <c r="C194" t="n">
-        <v>116.120002746582</v>
+        <v>210.1799926757812</v>
       </c>
       <c r="D194" t="n">
-        <v>112.25</v>
+        <v>204.8200073242188</v>
       </c>
       <c r="E194" t="n">
-        <v>113.1600036621094</v>
+        <v>205.9100036621094</v>
       </c>
       <c r="F194" t="n">
-        <v>110.713020324707</v>
+        <v>199.2725067138672</v>
       </c>
       <c r="G194" t="n">
-        <v>161498200</v>
+        <v>28554300</v>
       </c>
     </row>
     <row r="195">
@@ -4920,22 +4920,22 @@
         <v>44111</v>
       </c>
       <c r="B195" t="n">
-        <v>114.620002746582</v>
+        <v>207.0599975585938</v>
       </c>
       <c r="C195" t="n">
-        <v>115.5500030517578</v>
+        <v>210.1100006103516</v>
       </c>
       <c r="D195" t="n">
-        <v>114.129997253418</v>
+        <v>206.7200012207031</v>
       </c>
       <c r="E195" t="n">
-        <v>115.0800018310547</v>
+        <v>209.8300018310547</v>
       </c>
       <c r="F195" t="n">
-        <v>112.5915145874023</v>
+        <v>203.0661468505859</v>
       </c>
       <c r="G195" t="n">
-        <v>96849000</v>
+        <v>25681100</v>
       </c>
     </row>
     <row r="196">
@@ -4943,22 +4943,22 @@
         <v>44112</v>
       </c>
       <c r="B196" t="n">
-        <v>116.25</v>
+        <v>210.5099945068359</v>
       </c>
       <c r="C196" t="n">
-        <v>116.4000015258789</v>
+        <v>211.1900024414062</v>
       </c>
       <c r="D196" t="n">
-        <v>114.5899963378906</v>
+        <v>208.3200073242188</v>
       </c>
       <c r="E196" t="n">
-        <v>114.9700012207031</v>
+        <v>210.5800018310547</v>
       </c>
       <c r="F196" t="n">
-        <v>112.48388671875</v>
+        <v>203.7919616699219</v>
       </c>
       <c r="G196" t="n">
-        <v>83477200</v>
+        <v>19925800</v>
       </c>
     </row>
     <row r="197">
@@ -4966,22 +4966,22 @@
         <v>44113</v>
       </c>
       <c r="B197" t="n">
-        <v>115.2799987792969</v>
+        <v>211.2299957275391</v>
       </c>
       <c r="C197" t="n">
-        <v>117</v>
+        <v>215.8600006103516</v>
       </c>
       <c r="D197" t="n">
-        <v>114.9199981689453</v>
+        <v>211.2299957275391</v>
       </c>
       <c r="E197" t="n">
-        <v>116.9700012207031</v>
+        <v>215.8099975585938</v>
       </c>
       <c r="F197" t="n">
-        <v>114.4406509399414</v>
+        <v>208.8533477783203</v>
       </c>
       <c r="G197" t="n">
-        <v>100506900</v>
+        <v>26458000</v>
       </c>
     </row>
     <row r="198">
@@ -4989,22 +4989,22 @@
         <v>44116</v>
       </c>
       <c r="B198" t="n">
-        <v>120.0599975585938</v>
+        <v>218.7899932861328</v>
       </c>
       <c r="C198" t="n">
-        <v>125.1800003051758</v>
+        <v>223.8600006103516</v>
       </c>
       <c r="D198" t="n">
-        <v>119.2799987792969</v>
+        <v>216.8099975585938</v>
       </c>
       <c r="E198" t="n">
-        <v>124.4000015258789</v>
+        <v>221.3999938964844</v>
       </c>
       <c r="F198" t="n">
-        <v>121.7099761962891</v>
+        <v>214.2631530761719</v>
       </c>
       <c r="G198" t="n">
-        <v>240226800</v>
+        <v>40461400</v>
       </c>
     </row>
     <row r="199">
@@ -5012,22 +5012,22 @@
         <v>44117</v>
       </c>
       <c r="B199" t="n">
-        <v>125.2699966430664</v>
+        <v>222.7200012207031</v>
       </c>
       <c r="C199" t="n">
-        <v>125.3899993896484</v>
+        <v>225.2100067138672</v>
       </c>
       <c r="D199" t="n">
-        <v>119.6500015258789</v>
+        <v>220.4299926757812</v>
       </c>
       <c r="E199" t="n">
-        <v>121.0999984741211</v>
+        <v>222.8600006103516</v>
       </c>
       <c r="F199" t="n">
-        <v>118.481330871582</v>
+        <v>215.6760711669922</v>
       </c>
       <c r="G199" t="n">
-        <v>262330500</v>
+        <v>28950800</v>
       </c>
     </row>
     <row r="200">
@@ -5035,22 +5035,22 @@
         <v>44118</v>
       </c>
       <c r="B200" t="n">
-        <v>121</v>
+        <v>223</v>
       </c>
       <c r="C200" t="n">
-        <v>123.0299987792969</v>
+        <v>224.2200012207031</v>
       </c>
       <c r="D200" t="n">
-        <v>119.620002746582</v>
+        <v>219.1300048828125</v>
       </c>
       <c r="E200" t="n">
-        <v>121.1900024414062</v>
+        <v>220.8600006103516</v>
       </c>
       <c r="F200" t="n">
-        <v>118.5693817138672</v>
+        <v>213.7405853271484</v>
       </c>
       <c r="G200" t="n">
-        <v>150712000</v>
+        <v>23421700</v>
       </c>
     </row>
     <row r="201">
@@ -5058,22 +5058,22 @@
         <v>44119</v>
       </c>
       <c r="B201" t="n">
-        <v>118.7200012207031</v>
+        <v>217.1000061035156</v>
       </c>
       <c r="C201" t="n">
-        <v>121.1999969482422</v>
+        <v>220.3600006103516</v>
       </c>
       <c r="D201" t="n">
-        <v>118.1500015258789</v>
+        <v>216.0099945068359</v>
       </c>
       <c r="E201" t="n">
-        <v>120.7099990844727</v>
+        <v>219.6600036621094</v>
       </c>
       <c r="F201" t="n">
-        <v>118.0997543334961</v>
+        <v>212.5792694091797</v>
       </c>
       <c r="G201" t="n">
-        <v>112559200</v>
+        <v>22733100</v>
       </c>
     </row>
     <row r="202">
@@ -5081,22 +5081,22 @@
         <v>44120</v>
       </c>
       <c r="B202" t="n">
-        <v>121.2799987792969</v>
+        <v>220.1499938964844</v>
       </c>
       <c r="C202" t="n">
-        <v>121.5500030517578</v>
+        <v>222.2899932861328</v>
       </c>
       <c r="D202" t="n">
-        <v>118.8099975585938</v>
+        <v>219.3200073242188</v>
       </c>
       <c r="E202" t="n">
-        <v>119.0199966430664</v>
+        <v>219.6600036621094</v>
       </c>
       <c r="F202" t="n">
-        <v>116.4463043212891</v>
+        <v>212.5792694091797</v>
       </c>
       <c r="G202" t="n">
-        <v>115393800</v>
+        <v>26057900</v>
       </c>
     </row>
     <row r="203">
@@ -5104,22 +5104,22 @@
         <v>44123</v>
       </c>
       <c r="B203" t="n">
-        <v>119.9599990844727</v>
+        <v>220.4199981689453</v>
       </c>
       <c r="C203" t="n">
-        <v>120.4199981689453</v>
+        <v>222.3000030517578</v>
       </c>
       <c r="D203" t="n">
-        <v>115.6600036621094</v>
+        <v>213.7200012207031</v>
       </c>
       <c r="E203" t="n">
-        <v>115.9800033569336</v>
+        <v>214.2200012207031</v>
       </c>
       <c r="F203" t="n">
-        <v>113.4720458984375</v>
+        <v>207.3145751953125</v>
       </c>
       <c r="G203" t="n">
-        <v>120639300</v>
+        <v>27625800</v>
       </c>
     </row>
     <row r="204">
@@ -5127,22 +5127,22 @@
         <v>44124</v>
       </c>
       <c r="B204" t="n">
-        <v>116.1999969482422</v>
+        <v>215.8000030517578</v>
       </c>
       <c r="C204" t="n">
-        <v>118.9800033569336</v>
+        <v>217.3699951171875</v>
       </c>
       <c r="D204" t="n">
-        <v>115.629997253418</v>
+        <v>213.0899963378906</v>
       </c>
       <c r="E204" t="n">
-        <v>117.5100021362305</v>
+        <v>214.6499938964844</v>
       </c>
       <c r="F204" t="n">
-        <v>114.9689712524414</v>
+        <v>207.7307434082031</v>
       </c>
       <c r="G204" t="n">
-        <v>124423700</v>
+        <v>22753500</v>
       </c>
     </row>
     <row r="205">
@@ -5150,22 +5150,22 @@
         <v>44125</v>
       </c>
       <c r="B205" t="n">
-        <v>116.6699981689453</v>
+        <v>213.1199951171875</v>
       </c>
       <c r="C205" t="n">
-        <v>118.7099990844727</v>
+        <v>216.9199981689453</v>
       </c>
       <c r="D205" t="n">
-        <v>116.4499969482422</v>
+        <v>213.1199951171875</v>
       </c>
       <c r="E205" t="n">
-        <v>116.870002746582</v>
+        <v>214.8000030517578</v>
       </c>
       <c r="F205" t="n">
-        <v>114.3427886962891</v>
+        <v>207.8759460449219</v>
       </c>
       <c r="G205" t="n">
-        <v>89946000</v>
+        <v>22724900</v>
       </c>
     </row>
     <row r="206">
@@ -5173,22 +5173,22 @@
         <v>44126</v>
       </c>
       <c r="B206" t="n">
-        <v>117.4499969482422</v>
+        <v>213.9299926757812</v>
       </c>
       <c r="C206" t="n">
-        <v>118.0400009155273</v>
+        <v>216.0599975585938</v>
       </c>
       <c r="D206" t="n">
-        <v>114.5899963378906</v>
+        <v>211.6999969482422</v>
       </c>
       <c r="E206" t="n">
-        <v>115.75</v>
+        <v>214.8899993896484</v>
       </c>
       <c r="F206" t="n">
-        <v>113.2470245361328</v>
+        <v>207.9629974365234</v>
       </c>
       <c r="G206" t="n">
-        <v>101988000</v>
+        <v>22351500</v>
       </c>
     </row>
     <row r="207">
@@ -5196,22 +5196,22 @@
         <v>44127</v>
       </c>
       <c r="B207" t="n">
-        <v>116.3899993896484</v>
+        <v>215.0299987792969</v>
       </c>
       <c r="C207" t="n">
-        <v>116.5500030517578</v>
+        <v>216.2799987792969</v>
       </c>
       <c r="D207" t="n">
-        <v>114.2799987792969</v>
+        <v>213.1600036621094</v>
       </c>
       <c r="E207" t="n">
-        <v>115.0400009155273</v>
+        <v>216.2299957275391</v>
       </c>
       <c r="F207" t="n">
-        <v>112.5523834228516</v>
+        <v>209.2598266601562</v>
       </c>
       <c r="G207" t="n">
-        <v>82572600</v>
+        <v>18879600</v>
       </c>
     </row>
     <row r="208">
@@ -5219,22 +5219,22 @@
         <v>44130</v>
       </c>
       <c r="B208" t="n">
-        <v>114.0100021362305</v>
+        <v>213.8500061035156</v>
       </c>
       <c r="C208" t="n">
-        <v>116.5500030517578</v>
+        <v>216.3399963378906</v>
       </c>
       <c r="D208" t="n">
-        <v>112.879997253418</v>
+        <v>208.1000061035156</v>
       </c>
       <c r="E208" t="n">
-        <v>115.0500030517578</v>
+        <v>210.0800018310547</v>
       </c>
       <c r="F208" t="n">
-        <v>112.5621566772461</v>
+        <v>203.3080596923828</v>
       </c>
       <c r="G208" t="n">
-        <v>111850700</v>
+        <v>37111600</v>
       </c>
     </row>
     <row r="209">
@@ -5242,22 +5242,22 @@
         <v>44131</v>
       </c>
       <c r="B209" t="n">
-        <v>115.4899978637695</v>
+        <v>211.5899963378906</v>
       </c>
       <c r="C209" t="n">
-        <v>117.2799987792969</v>
+        <v>214.6699981689453</v>
       </c>
       <c r="D209" t="n">
-        <v>114.5400009155273</v>
+        <v>210.3300018310547</v>
       </c>
       <c r="E209" t="n">
-        <v>116.5999984741211</v>
+        <v>213.25</v>
       </c>
       <c r="F209" t="n">
-        <v>114.0786514282227</v>
+        <v>206.3758850097656</v>
       </c>
       <c r="G209" t="n">
-        <v>92276800</v>
+        <v>36700300</v>
       </c>
     </row>
     <row r="210">
@@ -5265,22 +5265,22 @@
         <v>44132</v>
       </c>
       <c r="B210" t="n">
-        <v>115.0500030517578</v>
+        <v>207.6699981689453</v>
       </c>
       <c r="C210" t="n">
-        <v>115.4300003051758</v>
+        <v>208.8399963378906</v>
       </c>
       <c r="D210" t="n">
-        <v>111.0999984741211</v>
+        <v>202.1000061035156</v>
       </c>
       <c r="E210" t="n">
-        <v>111.1999969482422</v>
+        <v>202.6799926757812</v>
       </c>
       <c r="F210" t="n">
-        <v>108.79541015625</v>
+        <v>196.1465759277344</v>
       </c>
       <c r="G210" t="n">
-        <v>143937800</v>
+        <v>51195600</v>
       </c>
     </row>
     <row r="211">
@@ -5288,22 +5288,22 @@
         <v>44133</v>
       </c>
       <c r="B211" t="n">
-        <v>112.370002746582</v>
+        <v>204.0700073242188</v>
       </c>
       <c r="C211" t="n">
-        <v>116.9300003051758</v>
+        <v>207.3600006103516</v>
       </c>
       <c r="D211" t="n">
-        <v>112.1999969482422</v>
+        <v>203.3699951171875</v>
       </c>
       <c r="E211" t="n">
-        <v>115.3199996948242</v>
+        <v>204.7200012207031</v>
       </c>
       <c r="F211" t="n">
-        <v>112.8263320922852</v>
+        <v>198.1208648681641</v>
       </c>
       <c r="G211" t="n">
-        <v>146129200</v>
+        <v>31432600</v>
       </c>
     </row>
     <row r="212">
@@ -5311,22 +5311,22 @@
         <v>44134</v>
       </c>
       <c r="B212" t="n">
-        <v>111.0599975585938</v>
+        <v>203.5</v>
       </c>
       <c r="C212" t="n">
-        <v>111.9899978637695</v>
+        <v>204.2899932861328</v>
       </c>
       <c r="D212" t="n">
-        <v>107.7200012207031</v>
+        <v>199.6199951171875</v>
       </c>
       <c r="E212" t="n">
-        <v>108.8600006103516</v>
+        <v>202.4700012207031</v>
       </c>
       <c r="F212" t="n">
-        <v>106.5060043334961</v>
+        <v>195.943359375</v>
       </c>
       <c r="G212" t="n">
-        <v>190272600</v>
+        <v>36953700</v>
       </c>
     </row>
     <row r="213">
@@ -5334,22 +5334,22 @@
         <v>44137</v>
       </c>
       <c r="B213" t="n">
-        <v>109.1100006103516</v>
+        <v>204.2899932861328</v>
       </c>
       <c r="C213" t="n">
-        <v>110.6800003051758</v>
+        <v>205.2799987792969</v>
       </c>
       <c r="D213" t="n">
-        <v>107.3199996948242</v>
+        <v>200.1199951171875</v>
       </c>
       <c r="E213" t="n">
-        <v>108.7699966430664</v>
+        <v>202.3300018310547</v>
       </c>
       <c r="F213" t="n">
-        <v>106.4179534912109</v>
+        <v>195.8078765869141</v>
       </c>
       <c r="G213" t="n">
-        <v>122866900</v>
+        <v>30842200</v>
       </c>
     </row>
     <row r="214">
@@ -5357,22 +5357,22 @@
         <v>44138</v>
       </c>
       <c r="B214" t="n">
-        <v>109.6600036621094</v>
+        <v>203.8899993896484</v>
       </c>
       <c r="C214" t="n">
-        <v>111.4899978637695</v>
+        <v>208.1199951171875</v>
       </c>
       <c r="D214" t="n">
-        <v>108.7300033569336</v>
+        <v>203.1199951171875</v>
       </c>
       <c r="E214" t="n">
-        <v>110.4400024414062</v>
+        <v>206.4299926757812</v>
       </c>
       <c r="F214" t="n">
-        <v>108.0518569946289</v>
+        <v>199.7757415771484</v>
       </c>
       <c r="G214" t="n">
-        <v>107624400</v>
+        <v>27512000</v>
       </c>
     </row>
     <row r="215">
@@ -5380,22 +5380,22 @@
         <v>44139</v>
       </c>
       <c r="B215" t="n">
-        <v>114.1399993896484</v>
+        <v>214.0200042724609</v>
       </c>
       <c r="C215" t="n">
-        <v>115.5899963378906</v>
+        <v>218.3200073242188</v>
       </c>
       <c r="D215" t="n">
-        <v>112.3499984741211</v>
+        <v>212.4199981689453</v>
       </c>
       <c r="E215" t="n">
-        <v>114.9499969482422</v>
+        <v>216.3899993896484</v>
       </c>
       <c r="F215" t="n">
-        <v>112.4643020629883</v>
+        <v>209.4146728515625</v>
       </c>
       <c r="G215" t="n">
-        <v>138235500</v>
+        <v>42311800</v>
       </c>
     </row>
     <row r="216">
@@ -5403,22 +5403,22 @@
         <v>44140</v>
       </c>
       <c r="B216" t="n">
-        <v>117.9499969482422</v>
+        <v>222.0399932861328</v>
       </c>
       <c r="C216" t="n">
-        <v>119.620002746582</v>
+        <v>224.1199951171875</v>
       </c>
       <c r="D216" t="n">
-        <v>116.870002746582</v>
+        <v>221.1499938964844</v>
       </c>
       <c r="E216" t="n">
-        <v>119.0299987792969</v>
+        <v>223.2899932861328</v>
       </c>
       <c r="F216" t="n">
-        <v>116.4560928344727</v>
+        <v>216.0922241210938</v>
       </c>
       <c r="G216" t="n">
-        <v>126387100</v>
+        <v>36080100</v>
       </c>
     </row>
     <row r="217">
@@ -5426,22 +5426,22 @@
         <v>44141</v>
       </c>
       <c r="B217" t="n">
-        <v>118.3199996948242</v>
+        <v>222.2599945068359</v>
       </c>
       <c r="C217" t="n">
-        <v>119.1999969482422</v>
+        <v>224.3600006103516</v>
       </c>
       <c r="D217" t="n">
-        <v>116.129997253418</v>
+        <v>218.0299987792969</v>
       </c>
       <c r="E217" t="n">
-        <v>118.6900024414062</v>
+        <v>223.7200012207031</v>
       </c>
       <c r="F217" t="n">
-        <v>116.3237991333008</v>
+        <v>216.5083770751953</v>
       </c>
       <c r="G217" t="n">
-        <v>114457900</v>
+        <v>25231900</v>
       </c>
     </row>
     <row r="218">
@@ -5449,22 +5449,22 @@
         <v>44144</v>
       </c>
       <c r="B218" t="n">
-        <v>120.5</v>
+        <v>224.4400024414062</v>
       </c>
       <c r="C218" t="n">
-        <v>121.9899978637695</v>
+        <v>228.1199951171875</v>
       </c>
       <c r="D218" t="n">
-        <v>116.0500030517578</v>
+        <v>217.8800048828125</v>
       </c>
       <c r="E218" t="n">
-        <v>116.3199996948242</v>
+        <v>218.3899993896484</v>
       </c>
       <c r="F218" t="n">
-        <v>114.0010452270508</v>
+        <v>211.3502044677734</v>
       </c>
       <c r="G218" t="n">
-        <v>154515300</v>
+        <v>44395000</v>
       </c>
     </row>
     <row r="219">
@@ -5472,22 +5472,22 @@
         <v>44145</v>
       </c>
       <c r="B219" t="n">
-        <v>115.5500030517578</v>
+        <v>214.5</v>
       </c>
       <c r="C219" t="n">
-        <v>117.5899963378906</v>
+        <v>216.5</v>
       </c>
       <c r="D219" t="n">
-        <v>114.129997253418</v>
+        <v>209.7200012207031</v>
       </c>
       <c r="E219" t="n">
-        <v>115.9700012207031</v>
+        <v>211.0099945068359</v>
       </c>
       <c r="F219" t="n">
-        <v>113.6580123901367</v>
+        <v>204.2080688476562</v>
       </c>
       <c r="G219" t="n">
-        <v>138023400</v>
+        <v>44045100</v>
       </c>
     </row>
     <row r="220">
@@ -5495,22 +5495,22 @@
         <v>44146</v>
       </c>
       <c r="B220" t="n">
-        <v>117.1900024414062</v>
+        <v>212.3899993896484</v>
       </c>
       <c r="C220" t="n">
-        <v>119.629997253418</v>
+        <v>218.0399932861328</v>
       </c>
       <c r="D220" t="n">
-        <v>116.4400024414062</v>
+        <v>212.1999969482422</v>
       </c>
       <c r="E220" t="n">
-        <v>119.4899978637695</v>
+        <v>216.5500030517578</v>
       </c>
       <c r="F220" t="n">
-        <v>117.1078338623047</v>
+        <v>209.5694885253906</v>
       </c>
       <c r="G220" t="n">
-        <v>112295000</v>
+        <v>29440800</v>
       </c>
     </row>
     <row r="221">
@@ -5518,22 +5518,22 @@
         <v>44147</v>
       </c>
       <c r="B221" t="n">
-        <v>119.620002746582</v>
+        <v>217.2100067138672</v>
       </c>
       <c r="C221" t="n">
-        <v>120.5299987792969</v>
+        <v>219.1100006103516</v>
       </c>
       <c r="D221" t="n">
-        <v>118.5699996948242</v>
+        <v>214.4600067138672</v>
       </c>
       <c r="E221" t="n">
-        <v>119.2099990844727</v>
+        <v>215.4400024414062</v>
       </c>
       <c r="F221" t="n">
-        <v>116.8334121704102</v>
+        <v>208.4953002929688</v>
       </c>
       <c r="G221" t="n">
-        <v>103162300</v>
+        <v>21593900</v>
       </c>
     </row>
     <row r="222">
@@ -5541,22 +5541,22 @@
         <v>44148</v>
       </c>
       <c r="B222" t="n">
-        <v>119.4400024414062</v>
+        <v>216.3600006103516</v>
       </c>
       <c r="C222" t="n">
-        <v>119.6699981689453</v>
+        <v>217.4199981689453</v>
       </c>
       <c r="D222" t="n">
-        <v>117.870002746582</v>
+        <v>214.1600036621094</v>
       </c>
       <c r="E222" t="n">
-        <v>119.2600021362305</v>
+        <v>216.5099945068359</v>
       </c>
       <c r="F222" t="n">
-        <v>116.8824157714844</v>
+        <v>209.5307922363281</v>
       </c>
       <c r="G222" t="n">
-        <v>81581900</v>
+        <v>18621100</v>
       </c>
     </row>
     <row r="223">
@@ -5564,22 +5564,22 @@
         <v>44151</v>
       </c>
       <c r="B223" t="n">
-        <v>118.9199981689453</v>
+        <v>214.8699951171875</v>
       </c>
       <c r="C223" t="n">
-        <v>120.9899978637695</v>
+        <v>217.7400054931641</v>
       </c>
       <c r="D223" t="n">
-        <v>118.1500015258789</v>
+        <v>214.5200042724609</v>
       </c>
       <c r="E223" t="n">
-        <v>120.3000030517578</v>
+        <v>217.2299957275391</v>
       </c>
       <c r="F223" t="n">
-        <v>117.9017028808594</v>
+        <v>210.2275848388672</v>
       </c>
       <c r="G223" t="n">
-        <v>91183000</v>
+        <v>24953300</v>
       </c>
     </row>
     <row r="224">
@@ -5587,22 +5587,22 @@
         <v>44152</v>
       </c>
       <c r="B224" t="n">
-        <v>119.5500030517578</v>
+        <v>216.1000061035156</v>
       </c>
       <c r="C224" t="n">
-        <v>120.6699981689453</v>
+        <v>217.6799926757812</v>
       </c>
       <c r="D224" t="n">
-        <v>118.9599990844727</v>
+        <v>214.0800018310547</v>
       </c>
       <c r="E224" t="n">
-        <v>119.3899993896484</v>
+        <v>214.4600067138672</v>
       </c>
       <c r="F224" t="n">
-        <v>117.0098114013672</v>
+        <v>207.5468902587891</v>
       </c>
       <c r="G224" t="n">
-        <v>74271000</v>
+        <v>24154100</v>
       </c>
     </row>
     <row r="225">
@@ -5610,22 +5610,22 @@
         <v>44153</v>
       </c>
       <c r="B225" t="n">
-        <v>118.6100006103516</v>
+        <v>213.6499938964844</v>
       </c>
       <c r="C225" t="n">
-        <v>119.8199996948242</v>
+        <v>215.1699981689453</v>
       </c>
       <c r="D225" t="n">
-        <v>118</v>
+        <v>210.9299926757812</v>
       </c>
       <c r="E225" t="n">
-        <v>118.0299987792969</v>
+        <v>211.0800018310547</v>
       </c>
       <c r="F225" t="n">
-        <v>115.6769561767578</v>
+        <v>204.8106231689453</v>
       </c>
       <c r="G225" t="n">
-        <v>76322100</v>
+        <v>28372800</v>
       </c>
     </row>
     <row r="226">
@@ -5633,22 +5633,22 @@
         <v>44154</v>
       </c>
       <c r="B226" t="n">
-        <v>117.5899963378906</v>
+        <v>211.3800048828125</v>
       </c>
       <c r="C226" t="n">
-        <v>119.0599975585938</v>
+        <v>213.0299987792969</v>
       </c>
       <c r="D226" t="n">
-        <v>116.8099975585938</v>
+        <v>209.9299926757812</v>
       </c>
       <c r="E226" t="n">
-        <v>118.6399993896484</v>
+        <v>212.4199981689453</v>
       </c>
       <c r="F226" t="n">
-        <v>116.2748031616211</v>
+        <v>206.11083984375</v>
       </c>
       <c r="G226" t="n">
-        <v>74113000</v>
+        <v>24792700</v>
       </c>
     </row>
     <row r="227">
@@ -5656,22 +5656,22 @@
         <v>44155</v>
       </c>
       <c r="B227" t="n">
-        <v>118.6399993896484</v>
+        <v>212.1999969482422</v>
       </c>
       <c r="C227" t="n">
-        <v>118.7699966430664</v>
+        <v>213.2899932861328</v>
       </c>
       <c r="D227" t="n">
-        <v>117.2900009155273</v>
+        <v>210</v>
       </c>
       <c r="E227" t="n">
-        <v>117.3399963378906</v>
+        <v>210.3899993896484</v>
       </c>
       <c r="F227" t="n">
-        <v>115.0007019042969</v>
+        <v>204.14111328125</v>
       </c>
       <c r="G227" t="n">
-        <v>73604300</v>
+        <v>22843100</v>
       </c>
     </row>
     <row r="228">
@@ -5679,22 +5679,22 @@
         <v>44158</v>
       </c>
       <c r="B228" t="n">
-        <v>117.1800003051758</v>
+        <v>210.9499969482422</v>
       </c>
       <c r="C228" t="n">
-        <v>117.620002746582</v>
+        <v>212.2899932861328</v>
       </c>
       <c r="D228" t="n">
-        <v>113.75</v>
+        <v>208.1600036621094</v>
       </c>
       <c r="E228" t="n">
-        <v>113.8499984741211</v>
+        <v>210.1100006103516</v>
       </c>
       <c r="F228" t="n">
-        <v>111.5802688598633</v>
+        <v>203.8694305419922</v>
       </c>
       <c r="G228" t="n">
-        <v>127959300</v>
+        <v>25683500</v>
       </c>
     </row>
     <row r="229">
@@ -5702,22 +5702,22 @@
         <v>44159</v>
       </c>
       <c r="B229" t="n">
-        <v>113.9100036621094</v>
+        <v>209.5899963378906</v>
       </c>
       <c r="C229" t="n">
-        <v>115.8499984741211</v>
+        <v>214.25</v>
       </c>
       <c r="D229" t="n">
-        <v>112.5899963378906</v>
+        <v>208.8600006103516</v>
       </c>
       <c r="E229" t="n">
-        <v>115.1699981689453</v>
+        <v>213.8600006103516</v>
       </c>
       <c r="F229" t="n">
-        <v>112.8739624023438</v>
+        <v>207.5080871582031</v>
       </c>
       <c r="G229" t="n">
-        <v>113874200</v>
+        <v>33979700</v>
       </c>
     </row>
     <row r="230">
@@ -5725,22 +5725,22 @@
         <v>44160</v>
       </c>
       <c r="B230" t="n">
-        <v>115.5500030517578</v>
+        <v>215.1100006103516</v>
       </c>
       <c r="C230" t="n">
-        <v>116.75</v>
+        <v>215.2899932861328</v>
       </c>
       <c r="D230" t="n">
-        <v>115.1699981689453</v>
+        <v>212.4600067138672</v>
       </c>
       <c r="E230" t="n">
-        <v>116.0299987792969</v>
+        <v>213.8699951171875</v>
       </c>
       <c r="F230" t="n">
-        <v>113.7168045043945</v>
+        <v>207.5177612304688</v>
       </c>
       <c r="G230" t="n">
-        <v>76499200</v>
+        <v>21012900</v>
       </c>
     </row>
     <row r="231">
@@ -5748,22 +5748,22 @@
         <v>44162</v>
       </c>
       <c r="B231" t="n">
-        <v>116.5699996948242</v>
+        <v>214.8500061035156</v>
       </c>
       <c r="C231" t="n">
-        <v>117.4899978637695</v>
+        <v>216.2700042724609</v>
       </c>
       <c r="D231" t="n">
-        <v>116.2200012207031</v>
+        <v>214.0399932861328</v>
       </c>
       <c r="E231" t="n">
-        <v>116.5899963378906</v>
+        <v>215.2299957275391</v>
       </c>
       <c r="F231" t="n">
-        <v>114.2656555175781</v>
+        <v>208.8373718261719</v>
       </c>
       <c r="G231" t="n">
-        <v>46691300</v>
+        <v>14512200</v>
       </c>
     </row>
     <row r="232">
@@ -5771,22 +5771,22 @@
         <v>44165</v>
       </c>
       <c r="B232" t="n">
-        <v>116.9700012207031</v>
+        <v>214.1000061035156</v>
       </c>
       <c r="C232" t="n">
-        <v>120.9700012207031</v>
+        <v>214.7599945068359</v>
       </c>
       <c r="D232" t="n">
-        <v>116.8099975585938</v>
+        <v>210.8399963378906</v>
       </c>
       <c r="E232" t="n">
-        <v>119.0500030517578</v>
+        <v>214.0700073242188</v>
       </c>
       <c r="F232" t="n">
-        <v>116.6766052246094</v>
+        <v>207.7118377685547</v>
       </c>
       <c r="G232" t="n">
-        <v>169410200</v>
+        <v>33064800</v>
       </c>
     </row>
     <row r="233">
@@ -5794,22 +5794,22 @@
         <v>44166</v>
       </c>
       <c r="B233" t="n">
-        <v>121.0100021362305</v>
+        <v>214.5099945068359</v>
       </c>
       <c r="C233" t="n">
-        <v>123.4700012207031</v>
+        <v>217.3200073242188</v>
       </c>
       <c r="D233" t="n">
-        <v>120.0100021362305</v>
+        <v>213.3500061035156</v>
       </c>
       <c r="E233" t="n">
-        <v>122.7200012207031</v>
+        <v>216.2100067138672</v>
       </c>
       <c r="F233" t="n">
-        <v>120.2734451293945</v>
+        <v>209.7882843017578</v>
       </c>
       <c r="G233" t="n">
-        <v>127728200</v>
+        <v>30904500</v>
       </c>
     </row>
     <row r="234">
@@ -5817,22 +5817,22 @@
         <v>44167</v>
       </c>
       <c r="B234" t="n">
-        <v>122.0199966430664</v>
+        <v>214.8800048828125</v>
       </c>
       <c r="C234" t="n">
-        <v>123.370002746582</v>
+        <v>215.4700012207031</v>
       </c>
       <c r="D234" t="n">
-        <v>120.8899993896484</v>
+        <v>212.8000030517578</v>
       </c>
       <c r="E234" t="n">
-        <v>123.0800018310547</v>
+        <v>215.3699951171875</v>
       </c>
       <c r="F234" t="n">
-        <v>120.6262664794922</v>
+        <v>208.9732208251953</v>
       </c>
       <c r="G234" t="n">
-        <v>89004200</v>
+        <v>23724500</v>
       </c>
     </row>
     <row r="235">
@@ -5840,22 +5840,22 @@
         <v>44168</v>
       </c>
       <c r="B235" t="n">
-        <v>123.5199966430664</v>
+        <v>214.6100006103516</v>
       </c>
       <c r="C235" t="n">
-        <v>123.7799987792969</v>
+        <v>216.3800048828125</v>
       </c>
       <c r="D235" t="n">
-        <v>122.2099990844727</v>
+        <v>213.6499938964844</v>
       </c>
       <c r="E235" t="n">
-        <v>122.9400024414062</v>
+        <v>214.2400054931641</v>
       </c>
       <c r="F235" t="n">
-        <v>120.4890518188477</v>
+        <v>207.8767852783203</v>
       </c>
       <c r="G235" t="n">
-        <v>78967600</v>
+        <v>25120900</v>
       </c>
     </row>
     <row r="236">
@@ -5863,22 +5863,22 @@
         <v>44169</v>
       </c>
       <c r="B236" t="n">
-        <v>122.5999984741211</v>
+        <v>214.2200012207031</v>
       </c>
       <c r="C236" t="n">
-        <v>122.8600006103516</v>
+        <v>215.3800048828125</v>
       </c>
       <c r="D236" t="n">
-        <v>121.5199966430664</v>
+        <v>213.1799926757812</v>
       </c>
       <c r="E236" t="n">
-        <v>122.25</v>
+        <v>214.3600006103516</v>
       </c>
       <c r="F236" t="n">
-        <v>119.8128356933594</v>
+        <v>207.9932250976562</v>
       </c>
       <c r="G236" t="n">
-        <v>78260400</v>
+        <v>24666000</v>
       </c>
     </row>
     <row r="237">
@@ -5886,22 +5886,22 @@
         <v>44172</v>
       </c>
       <c r="B237" t="n">
-        <v>122.3099975585938</v>
+        <v>214.3699951171875</v>
       </c>
       <c r="C237" t="n">
-        <v>124.5699996948242</v>
+        <v>215.5399932861328</v>
       </c>
       <c r="D237" t="n">
-        <v>122.25</v>
+        <v>212.9900054931641</v>
       </c>
       <c r="E237" t="n">
-        <v>123.75</v>
+        <v>214.2899932861328</v>
       </c>
       <c r="F237" t="n">
-        <v>121.2829132080078</v>
+        <v>207.92529296875</v>
       </c>
       <c r="G237" t="n">
-        <v>86712000</v>
+        <v>24620000</v>
       </c>
     </row>
     <row r="238">
@@ -5909,22 +5909,22 @@
         <v>44173</v>
       </c>
       <c r="B238" t="n">
-        <v>124.370002746582</v>
+        <v>213.9700012207031</v>
       </c>
       <c r="C238" t="n">
-        <v>124.9800033569336</v>
+        <v>216.9499969482422</v>
       </c>
       <c r="D238" t="n">
-        <v>123.0899963378906</v>
+        <v>212.8899993896484</v>
       </c>
       <c r="E238" t="n">
-        <v>124.379997253418</v>
+        <v>216.0099945068359</v>
       </c>
       <c r="F238" t="n">
-        <v>121.9003524780273</v>
+        <v>209.5942230224609</v>
       </c>
       <c r="G238" t="n">
-        <v>82225500</v>
+        <v>23284100</v>
       </c>
     </row>
     <row r="239">
@@ -5932,22 +5932,22 @@
         <v>44174</v>
       </c>
       <c r="B239" t="n">
-        <v>124.5299987792969</v>
+        <v>215.1600036621094</v>
       </c>
       <c r="C239" t="n">
-        <v>125.9499969482422</v>
+        <v>215.2299957275391</v>
       </c>
       <c r="D239" t="n">
-        <v>121</v>
+        <v>211.2100067138672</v>
       </c>
       <c r="E239" t="n">
-        <v>121.7799987792969</v>
+        <v>211.8000030517578</v>
       </c>
       <c r="F239" t="n">
-        <v>119.3521881103516</v>
+        <v>205.5092163085938</v>
       </c>
       <c r="G239" t="n">
-        <v>115089200</v>
+        <v>32440600</v>
       </c>
     </row>
     <row r="240">
@@ -5955,22 +5955,22 @@
         <v>44175</v>
       </c>
       <c r="B240" t="n">
-        <v>120.5</v>
+        <v>211.7700042724609</v>
       </c>
       <c r="C240" t="n">
-        <v>123.870002746582</v>
+        <v>213.0800018310547</v>
       </c>
       <c r="D240" t="n">
-        <v>120.1500015258789</v>
+        <v>210.3600006103516</v>
       </c>
       <c r="E240" t="n">
-        <v>123.2399978637695</v>
+        <v>210.5200042724609</v>
       </c>
       <c r="F240" t="n">
-        <v>120.7830810546875</v>
+        <v>204.2672576904297</v>
       </c>
       <c r="G240" t="n">
-        <v>81312200</v>
+        <v>26733300</v>
       </c>
     </row>
     <row r="241">
@@ -5978,22 +5978,22 @@
         <v>44176</v>
       </c>
       <c r="B241" t="n">
-        <v>122.4300003051758</v>
+        <v>210.0500030517578</v>
       </c>
       <c r="C241" t="n">
-        <v>122.7600021362305</v>
+        <v>213.3200073242188</v>
       </c>
       <c r="D241" t="n">
-        <v>120.5500030517578</v>
+        <v>209.1100006103516</v>
       </c>
       <c r="E241" t="n">
-        <v>122.4100036621094</v>
+        <v>213.2599945068359</v>
       </c>
       <c r="F241" t="n">
-        <v>119.969612121582</v>
+        <v>206.9258880615234</v>
       </c>
       <c r="G241" t="n">
-        <v>86939800</v>
+        <v>30979400</v>
       </c>
     </row>
     <row r="242">
@@ -6001,22 +6001,22 @@
         <v>44179</v>
       </c>
       <c r="B242" t="n">
-        <v>122.5999984741211</v>
+        <v>213.1000061035156</v>
       </c>
       <c r="C242" t="n">
-        <v>123.3499984741211</v>
+        <v>216.2100067138672</v>
       </c>
       <c r="D242" t="n">
-        <v>121.5400009155273</v>
+        <v>212.8800048828125</v>
       </c>
       <c r="E242" t="n">
-        <v>121.7799987792969</v>
+        <v>214.1999969482422</v>
       </c>
       <c r="F242" t="n">
-        <v>119.3521881103516</v>
+        <v>207.8379821777344</v>
       </c>
       <c r="G242" t="n">
-        <v>79184500</v>
+        <v>28798400</v>
       </c>
     </row>
     <row r="243">
@@ -6024,22 +6024,22 @@
         <v>44180</v>
       </c>
       <c r="B243" t="n">
-        <v>124.3399963378906</v>
+        <v>215.1699981689453</v>
       </c>
       <c r="C243" t="n">
-        <v>127.9000015258789</v>
+        <v>215.4199981689453</v>
       </c>
       <c r="D243" t="n">
-        <v>124.129997253418</v>
+        <v>212.2400054931641</v>
       </c>
       <c r="E243" t="n">
-        <v>127.879997253418</v>
+        <v>214.1300048828125</v>
       </c>
       <c r="F243" t="n">
-        <v>125.33056640625</v>
+        <v>207.7700500488281</v>
       </c>
       <c r="G243" t="n">
-        <v>157243700</v>
+        <v>27000600</v>
       </c>
     </row>
     <row r="244">
@@ -6047,22 +6047,22 @@
         <v>44181</v>
       </c>
       <c r="B244" t="n">
-        <v>127.4100036621094</v>
+        <v>214.75</v>
       </c>
       <c r="C244" t="n">
-        <v>128.3699951171875</v>
+        <v>220.1100006103516</v>
       </c>
       <c r="D244" t="n">
-        <v>126.5599975585938</v>
+        <v>214.7200012207031</v>
       </c>
       <c r="E244" t="n">
-        <v>127.8099975585938</v>
+        <v>219.2799987792969</v>
       </c>
       <c r="F244" t="n">
-        <v>125.2619705200195</v>
+        <v>212.7671051025391</v>
       </c>
       <c r="G244" t="n">
-        <v>98208600</v>
+        <v>35023300</v>
       </c>
     </row>
     <row r="245">
@@ -6070,22 +6070,22 @@
         <v>44182</v>
       </c>
       <c r="B245" t="n">
-        <v>128.8999938964844</v>
+        <v>219.8699951171875</v>
       </c>
       <c r="C245" t="n">
-        <v>129.5800018310547</v>
+        <v>220.8899993896484</v>
       </c>
       <c r="D245" t="n">
-        <v>128.0399932861328</v>
+        <v>217.9199981689453</v>
       </c>
       <c r="E245" t="n">
-        <v>128.6999969482422</v>
+        <v>219.4199981689453</v>
       </c>
       <c r="F245" t="n">
-        <v>126.1342163085938</v>
+        <v>212.9029388427734</v>
       </c>
       <c r="G245" t="n">
-        <v>94359800</v>
+        <v>32515800</v>
       </c>
     </row>
     <row r="246">
@@ -6093,22 +6093,22 @@
         <v>44183</v>
       </c>
       <c r="B246" t="n">
-        <v>128.9600067138672</v>
+        <v>218.5899963378906</v>
       </c>
       <c r="C246" t="n">
-        <v>129.1000061035156</v>
+        <v>219.6900024414062</v>
       </c>
       <c r="D246" t="n">
-        <v>126.120002746582</v>
+        <v>216.0200042724609</v>
       </c>
       <c r="E246" t="n">
-        <v>126.6600036621094</v>
+        <v>218.5899963378906</v>
       </c>
       <c r="F246" t="n">
-        <v>124.1349029541016</v>
+        <v>212.0975646972656</v>
       </c>
       <c r="G246" t="n">
-        <v>192541500</v>
+        <v>63354900</v>
       </c>
     </row>
     <row r="247">
@@ -6116,22 +6116,22 @@
         <v>44186</v>
       </c>
       <c r="B247" t="n">
-        <v>125.0199966430664</v>
+        <v>217.5500030517578</v>
       </c>
       <c r="C247" t="n">
-        <v>128.3099975585938</v>
+        <v>224</v>
       </c>
       <c r="D247" t="n">
-        <v>123.4499969482422</v>
+        <v>217.2799987792969</v>
       </c>
       <c r="E247" t="n">
-        <v>128.2299957275391</v>
+        <v>222.5899963378906</v>
       </c>
       <c r="F247" t="n">
-        <v>125.6735916137695</v>
+        <v>215.9787902832031</v>
       </c>
       <c r="G247" t="n">
-        <v>121251600</v>
+        <v>37181900</v>
       </c>
     </row>
     <row r="248">
@@ -6139,22 +6139,22 @@
         <v>44187</v>
       </c>
       <c r="B248" t="n">
-        <v>131.6100006103516</v>
+        <v>222.6900024414062</v>
       </c>
       <c r="C248" t="n">
-        <v>134.4100036621094</v>
+        <v>225.6300048828125</v>
       </c>
       <c r="D248" t="n">
-        <v>129.6499938964844</v>
+        <v>221.8500061035156</v>
       </c>
       <c r="E248" t="n">
-        <v>131.8800048828125</v>
+        <v>223.9400024414062</v>
       </c>
       <c r="F248" t="n">
-        <v>129.2508392333984</v>
+        <v>217.2886810302734</v>
       </c>
       <c r="G248" t="n">
-        <v>168904800</v>
+        <v>22612200</v>
       </c>
     </row>
     <row r="249">
@@ -6162,22 +6162,22 @@
         <v>44188</v>
       </c>
       <c r="B249" t="n">
-        <v>132.1600036621094</v>
+        <v>223.1100006103516</v>
       </c>
       <c r="C249" t="n">
-        <v>132.4299926757812</v>
+        <v>223.5599975585938</v>
       </c>
       <c r="D249" t="n">
-        <v>130.7799987792969</v>
+        <v>220.8000030517578</v>
       </c>
       <c r="E249" t="n">
-        <v>130.9600067138672</v>
+        <v>221.0200042724609</v>
       </c>
       <c r="F249" t="n">
-        <v>128.3491821289062</v>
+        <v>214.4553985595703</v>
       </c>
       <c r="G249" t="n">
-        <v>88223700</v>
+        <v>18699600</v>
       </c>
     </row>
     <row r="250">
@@ -6185,22 +6185,22 @@
         <v>44189</v>
       </c>
       <c r="B250" t="n">
-        <v>131.3200073242188</v>
+        <v>221.4199981689453</v>
       </c>
       <c r="C250" t="n">
-        <v>133.4600067138672</v>
+        <v>223.6100006103516</v>
       </c>
       <c r="D250" t="n">
-        <v>131.1000061035156</v>
+        <v>221.1999969482422</v>
       </c>
       <c r="E250" t="n">
-        <v>131.9700012207031</v>
+        <v>222.75</v>
       </c>
       <c r="F250" t="n">
-        <v>129.3390350341797</v>
+        <v>216.1339874267578</v>
       </c>
       <c r="G250" t="n">
-        <v>54930100</v>
+        <v>10550600</v>
       </c>
     </row>
     <row r="251">
@@ -6208,22 +6208,22 @@
         <v>44193</v>
       </c>
       <c r="B251" t="n">
-        <v>133.9900054931641</v>
+        <v>224.4499969482422</v>
       </c>
       <c r="C251" t="n">
-        <v>137.3399963378906</v>
+        <v>226.0299987792969</v>
       </c>
       <c r="D251" t="n">
-        <v>133.5099945068359</v>
+        <v>223.0200042724609</v>
       </c>
       <c r="E251" t="n">
-        <v>136.6900024414062</v>
+        <v>224.9600067138672</v>
       </c>
       <c r="F251" t="n">
-        <v>133.9649505615234</v>
+        <v>218.2783813476562</v>
       </c>
       <c r="G251" t="n">
-        <v>124486200</v>
+        <v>17933500</v>
       </c>
     </row>
     <row r="252">
@@ -6231,22 +6231,22 @@
         <v>44194</v>
       </c>
       <c r="B252" t="n">
-        <v>138.0500030517578</v>
+        <v>226.3099975585938</v>
       </c>
       <c r="C252" t="n">
-        <v>138.7899932861328</v>
+        <v>227.1799926757812</v>
       </c>
       <c r="D252" t="n">
-        <v>134.3399963378906</v>
+        <v>223.5800018310547</v>
       </c>
       <c r="E252" t="n">
-        <v>134.8699951171875</v>
+        <v>224.1499938964844</v>
       </c>
       <c r="F252" t="n">
-        <v>132.1812286376953</v>
+        <v>217.492431640625</v>
       </c>
       <c r="G252" t="n">
-        <v>121047300</v>
+        <v>17403200</v>
       </c>
     </row>
     <row r="253">
@@ -6254,22 +6254,22 @@
         <v>44195</v>
       </c>
       <c r="B253" t="n">
-        <v>135.5800018310547</v>
+        <v>225.2299957275391</v>
       </c>
       <c r="C253" t="n">
-        <v>135.9900054931641</v>
+        <v>225.6300048828125</v>
       </c>
       <c r="D253" t="n">
-        <v>133.3999938964844</v>
+        <v>221.4700012207031</v>
       </c>
       <c r="E253" t="n">
-        <v>133.7200012207031</v>
+        <v>221.6799926757812</v>
       </c>
       <c r="F253" t="n">
-        <v>131.0541381835938</v>
+        <v>215.0957946777344</v>
       </c>
       <c r="G253" t="n">
-        <v>96452100</v>
+        <v>20272300</v>
       </c>
     </row>
     <row r="254">
@@ -6277,22 +6277,22 @@
         <v>44196</v>
       </c>
       <c r="B254" t="n">
-        <v>134.0800018310547</v>
+        <v>221.6999969482422</v>
       </c>
       <c r="C254" t="n">
-        <v>134.7400054931641</v>
+        <v>223</v>
       </c>
       <c r="D254" t="n">
-        <v>131.7200012207031</v>
+        <v>219.6799926757812</v>
       </c>
       <c r="E254" t="n">
-        <v>132.6900024414062</v>
+        <v>222.4199981689453</v>
       </c>
       <c r="F254" t="n">
-        <v>130.0446929931641</v>
+        <v>215.8138427734375</v>
       </c>
       <c r="G254" t="n">
-        <v>99116600</v>
+        <v>20942100</v>
       </c>
     </row>
   </sheetData>
